--- a/AfDD_2024_Annex_Table_Tab18.xlsx
+++ b/AfDD_2024_Annex_Table_Tab18.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0800CA-EF08-42C5-B3CE-D6E621E2D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A30352-3381-433C-803A-B63C103134D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{DBA47D26-C4E9-4A0B-94A3-3E459D4BD35B}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C64E827B-AE4C-4184-A538-33EC38A954AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="281">
   <si>
     <t>Table 18: Export diversification</t>
   </si>
@@ -867,13 +867,10 @@
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 30/01/2024).</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -889,34 +886,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -929,6 +912,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1002,6 +993,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -1010,10 +1008,30 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1028,13 +1046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,95 +1066,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1145,44 +1091,22 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1190,342 +1114,450 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1841,28 +1873,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544CA26B-809D-4B1F-8D1C-855C104FFDA6}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:O113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6ACA01-7FB7-4424-8226-EEDB161FD5B2}">
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="100" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="101" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="101" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="101" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="101" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="102" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="103" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="102" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="104" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="105" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="104" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="105" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="104" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="105" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="104" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" style="105" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="107" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1878,46 +1909,46 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="9" t="s">
@@ -1926,59 +1957,59 @@
       <c r="N2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>72.999661510212206</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>12.091369490699099</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="16">
         <v>9.2674131325819094</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="18">
         <v>1.54545565113471</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="19">
         <v>1.0584500534642201</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="20">
         <v>2</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="16">
         <v>3</v>
       </c>
-      <c r="O3" s="20">
-        <v>40.8207916107622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="O3" s="19">
+        <v>40.813442678227403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -2017,300 +2048,300 @@
       <c r="M4" s="26">
         <v>1</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="23">
         <v>3</v>
       </c>
-      <c r="O4" s="28">
-        <v>43.553557967048903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="O4" s="25">
+        <v>43.624379790981301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="29">
         <v>27.317479466488699</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="29">
         <v>14.7555768699717</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="29">
         <v>10.1422365512451</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="29">
         <v>3.9168240638356799</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="31">
         <v>3.1822494685188198</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="32">
         <v>13</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="29">
         <v>36</v>
       </c>
-      <c r="O5" s="28">
-        <v>43.064653391471403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="O5" s="31">
+        <v>43.829967379074297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="29">
         <v>34.759611080379202</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="29">
         <v>8.4422755098997904</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="29">
         <v>8.3930894899767594</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="29">
         <v>5.8077886173920303</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="31">
         <v>5.2984184707986701</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="32">
         <v>9</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="29">
         <v>20</v>
       </c>
-      <c r="O6" s="28">
-        <v>44.887881112037398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="O6" s="31">
+        <v>42.694563367900699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="29">
         <v>36.809897691424503</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="29">
         <v>18.930598580045601</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="29">
         <v>7.11477406361508</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="29">
         <v>6.8298063571553698</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="31">
         <v>4.8123259770518496</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="32">
         <v>6</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="29">
         <v>19</v>
       </c>
-      <c r="O7" s="28">
-        <v>8.8218349821157105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="O7" s="31">
+        <v>9.0747867376323406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="29">
         <v>29.495473138057399</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="29">
         <v>17.068493747565299</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="29">
         <v>7.1980730938566904</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="29">
         <v>5.9505921773902504</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="31">
         <v>3.7232072489391799</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="32">
         <v>9</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="29">
         <v>22</v>
       </c>
-      <c r="O8" s="28">
-        <v>49.1172439812714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="O8" s="31">
+        <v>51.1178042333338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="29">
         <v>17.727152171262698</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="29">
         <v>13.902928889222</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="29">
         <v>9.2303327939593203</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="29">
         <v>5.7584328649605103</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="31">
         <v>5.5718834591733604</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="32">
         <v>13</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="29">
         <v>37</v>
       </c>
-      <c r="O9" s="28">
-        <v>40.457278860711497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="O9" s="31">
+        <v>42.259728200385403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="29">
         <v>15.0584834753162</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="29">
         <v>12.6903815332267</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="29">
         <v>8.4638608848563806</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="29">
         <v>5.5523938665296297</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="31">
         <v>4.5673748565288399</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="32">
         <v>33</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="29">
         <v>150</v>
       </c>
-      <c r="O10" s="28">
-        <v>33.538436007874999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="O10" s="31">
+        <v>33.538436009656401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -2346,347 +2377,347 @@
       <c r="M11" s="26">
         <v>6</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="23">
         <v>22</v>
       </c>
-      <c r="O11" s="28">
-        <v>41.817764455404102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="O11" s="25">
+        <v>42.729213004668402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="35">
         <v>53.261961686416299</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="35">
         <v>12.1745062943188</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="35">
         <v>9.9476492567595596</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="35">
         <v>5.35009757478407</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="37">
         <v>4.2468888329933101</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="38">
         <v>3</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="35">
         <v>9</v>
       </c>
-      <c r="O12" s="28">
-        <v>23.669309476004301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="O12" s="37">
+        <v>23.8201475980708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="42">
         <v>15.3288133818501</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="42">
         <v>11.4656155622611</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="42">
         <v>7.9169587527977097</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="44">
         <v>7.3944358863671598</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="45">
         <v>6.3429093150364304</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="46">
         <v>24</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="42">
         <v>123</v>
       </c>
-      <c r="O13" s="39">
-        <v>35.396603279378603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="O13" s="45">
+        <v>35.549619576237099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="49">
         <v>28.412764238491501</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="49">
         <v>16.809199499675302</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="49">
         <v>13.975784864646499</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="29">
         <v>5.6197248341988102</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="31">
         <v>4.9510269021350997</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="50">
         <v>7</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="49">
         <v>14</v>
       </c>
-      <c r="O14" s="28">
-        <v>7.1311334677131102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="O14" s="31">
+        <v>7.4290142971997897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="29">
         <v>38.751655528365298</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="29">
         <v>24.256424519287499</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="29">
         <v>7.6024811517570399</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="29">
         <v>6.4684203156068696</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="31">
         <v>4.0049693534036299</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="32">
         <v>4</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="29">
         <v>10</v>
       </c>
-      <c r="O15" s="28">
-        <v>19.960166571937201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="O15" s="31">
+        <v>19.4743321602155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="29">
         <v>38.941356470155696</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="29">
         <v>17.442542250949799</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="29">
         <v>15.4448411983039</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="29">
         <v>6.4693505858626397</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="31">
         <v>4.6341641789011003</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="32">
         <v>4</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="29">
         <v>8</v>
       </c>
-      <c r="O16" s="28">
-        <v>13.708937782363201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="O16" s="31">
+        <v>13.7289820231133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="18">
         <v>76.007510858575301</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="18">
         <v>19.935991280538101</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="18">
         <v>2.4160624547730598</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="18">
         <v>0.69656299508712005</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="19">
         <v>0.67337282930150999</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="53">
         <v>1</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <v>2</v>
       </c>
-      <c r="O17" s="20">
-        <v>47.610507564873203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="O17" s="19">
+        <v>38.233387847591999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="18">
         <v>66.000281634233104</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="18">
         <v>26.082444606457202</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="18">
         <v>1.77520825161872</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="18">
         <v>1.16002810190393</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="19">
         <v>0.99153317326658996</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="53">
         <v>2</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <v>2</v>
       </c>
-      <c r="O18" s="20">
-        <v>84.179969582365004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="O18" s="19">
+        <v>82.520932154697903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -2722,1472 +2753,1472 @@
       <c r="M19" s="26">
         <v>2</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="23">
         <v>5</v>
       </c>
-      <c r="O19" s="28">
-        <v>43.2444721325272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="O19" s="25">
+        <v>42.1405097169824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="18">
         <v>44.051877929499099</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="18">
         <v>31.271859628781598</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="18">
         <v>1.96019823829759</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="18">
         <v>1.71372767715895</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="19">
         <v>1.5500801873548899</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="53">
         <v>2</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <v>18</v>
       </c>
-      <c r="O20" s="20">
-        <v>55.4973767830745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="O20" s="19">
+        <v>56.369554260410503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="18">
         <v>62.028936125766997</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="18">
         <v>23.127830021287199</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="18">
         <v>4.4936863573939698</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="18">
         <v>3.4498092526709598</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="19">
         <v>2.0698916618746201</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="53">
         <v>2</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="18">
         <v>4</v>
       </c>
-      <c r="O21" s="20">
-        <v>45.5154538354397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="O21" s="19">
+        <v>44.845321877273904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="35">
         <v>43.852457334087703</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="35">
         <v>23.963583985692001</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="35">
         <v>7.4426836965553802</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="35">
         <v>2.7971052232776699</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="37">
         <v>2.42295533525433</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="38">
         <v>3</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="35">
         <v>17</v>
       </c>
-      <c r="O22" s="28">
-        <v>17.334516383164399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="O22" s="37">
+        <v>17.334516380739299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="42">
         <v>34.474672672192199</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="42">
         <v>28.168777680009399</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="42">
         <v>8.6475500240158407</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="44">
         <v>6.3744901067653403</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="45">
         <v>2.63948632223424</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="46">
         <v>4</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="42">
         <v>11</v>
       </c>
-      <c r="O23" s="39">
-        <v>38.730335956078903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="O23" s="45">
+        <v>37.433046433438903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="49">
         <v>48.050601678638401</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="49">
         <v>23.141564971006598</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="49">
         <v>11.7917028897131</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="29">
         <v>8.4920045019247894</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="31">
         <v>1.6653903307156099</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="50">
         <v>3</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="49">
         <v>4</v>
       </c>
-      <c r="O24" s="28">
-        <v>13.328085963304501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="O24" s="31">
+        <v>13.5904709826951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="29">
         <v>55.115961074506302</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="29">
         <v>16.5947099811771</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="29">
         <v>4.9297090080111996</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="29">
         <v>2.4802319752215598</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="31">
         <v>1.89822086138668</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="32">
         <v>3</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="29">
         <v>12</v>
       </c>
-      <c r="O25" s="28">
-        <v>133.47771200226899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="O25" s="31">
+        <v>152.281685951611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="29">
         <v>39.300379867487599</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="29">
         <v>33.233964066530703</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="29">
         <v>24.3542985840254</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="29">
         <v>1.8858432706406301</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="31">
         <v>0.51629908112139999</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="32">
         <v>3</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="29">
         <v>3</v>
       </c>
-      <c r="O26" s="28" t="s">
+      <c r="O26" s="31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="29">
         <v>36.526359242454802</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="29">
         <v>12.8783881096976</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="29">
         <v>6.0000110710731702</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="29">
         <v>5.5496825934884599</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="31">
         <v>4.9895848029728702</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="32">
         <v>9</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="29">
         <v>36</v>
       </c>
-      <c r="O27" s="28">
-        <v>8.6825781473961996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="O27" s="31">
+        <v>8.7847747074909392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="29">
         <v>18.942694636622999</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="29">
         <v>9.0225471028551603</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="29">
         <v>4.6507116582292198</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="29">
         <v>3.9615891933071601</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="31">
         <v>3.0887338051300599</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="32">
         <v>46</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="29">
         <v>119</v>
       </c>
-      <c r="O28" s="28">
-        <v>12.185102707423599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="O28" s="31">
+        <v>12.173903334558499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="29">
         <v>22.045424030549199</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="29">
         <v>13.706336075983</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="29">
         <v>7.2992472559386599</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="29">
         <v>5.3063022049869897</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="31">
         <v>3.5839405753113498</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="32">
         <v>15</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="29">
         <v>38</v>
       </c>
-      <c r="O29" s="28">
-        <v>30.785442199441199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="O29" s="31">
+        <v>30.417452199998401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="29">
         <v>10.2785376943326</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="29">
         <v>8.0867857792359406</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="29">
         <v>4.7480986033536396</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="29">
         <v>4.6917623060132199</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="31">
         <v>3.3285377529953499</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="32">
         <v>44</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="29">
         <v>108</v>
       </c>
-      <c r="O30" s="28">
-        <v>38.805899424063199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="O30" s="31">
+        <v>38.654775700319099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="29">
         <v>30.357624451472699</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="29">
         <v>6.5141510118120998</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="29">
         <v>6.2635032249244897</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="29">
         <v>5.1986527784188201</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="31">
         <v>4.8558137690434702</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="32">
         <v>14</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="29">
         <v>54</v>
       </c>
-      <c r="O31" s="28">
-        <v>22.498902575952801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="O31" s="31">
+        <v>22.4989025754126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="29">
         <v>41.418161794634997</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="29">
         <v>32.9670056142606</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="29">
         <v>6.85808394014719</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="29">
         <v>1.9929173326107601</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="31">
         <v>1.8204450064036499</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="32">
         <v>3</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="29">
         <v>11</v>
       </c>
-      <c r="O32" s="28">
-        <v>113.505068309404</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="O32" s="31">
+        <v>109.02150369389101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="29">
         <v>43.362549353308601</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="29">
         <v>28.580360985582502</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="29">
         <v>6.9516355637679199</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="29">
         <v>5.6843049111267998</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="31">
         <v>3.7641398101801302</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="32">
         <v>3</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="29">
         <v>7</v>
       </c>
-      <c r="O33" s="28">
-        <v>17.313622212463301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="O33" s="31">
+        <v>17.313622215918699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="18">
         <v>86.520257493531105</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="18">
         <v>4.4178441683638496</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="18">
         <v>3.7411263765958802</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="18">
         <v>2.78429363104908</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="19">
         <v>0.54805634001863002</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="53">
         <v>1</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="18">
         <v>2</v>
       </c>
-      <c r="O34" s="20">
-        <v>59.822589313235802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="O34" s="19">
+        <v>58.1138442393083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="29">
         <v>42.0711730120601</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="29">
         <v>11.9902201585837</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="29">
         <v>11.841605489932199</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="29">
         <v>7.7005092166045799</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="31">
         <v>6.8534893345720702</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="32">
         <v>5</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="29">
         <v>9</v>
       </c>
-      <c r="O35" s="28">
-        <v>19.426270949847002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="O35" s="31">
+        <v>19.4203637389416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="29">
         <v>33.249583442066999</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="29">
         <v>13.127939877451601</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="29">
         <v>3.8430444306795999</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="29">
         <v>2.86009337393198</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="31">
         <v>2.8567810491402499</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="32">
         <v>18</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="29">
         <v>55</v>
       </c>
-      <c r="O36" s="28">
-        <v>15.4229780503788</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="O36" s="31">
+        <v>16.041496489134101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="35">
         <v>48.072351261417502</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="35">
         <v>18.8749339554324</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="35">
         <v>1.7429747081446201</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="35">
         <v>1.5461666680756001</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="37">
         <v>1.5080354647926599</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="38">
         <v>8</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="35">
         <v>30</v>
       </c>
-      <c r="O37" s="28">
-        <v>12.5477577169633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="O37" s="37">
+        <v>12.8554791614183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="42">
         <v>21.900695478958799</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="42">
         <v>6.9601795396510102</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="42">
         <v>3.6347764330146299</v>
       </c>
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="44">
         <v>3.06282984700827</v>
       </c>
-      <c r="K38" s="35" t="s">
+      <c r="K38" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="45">
         <v>2.6742053221229201</v>
       </c>
-      <c r="M38" s="37">
+      <c r="M38" s="46">
         <v>50</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="42">
         <v>144</v>
       </c>
-      <c r="O38" s="39">
-        <v>15.705382160973</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="O38" s="45">
+        <v>15.894885496073201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="16">
         <v>46.674864818244501</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="16">
         <v>27.448020403843699</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="16">
         <v>14.746459358850901</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="18">
         <v>3.5915354172784499</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="19">
         <v>2.1643353601130499</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="20">
         <v>3</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="16">
         <v>4</v>
       </c>
-      <c r="O39" s="20">
-        <v>35.4150588095264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="O39" s="19">
+        <v>30.616570795852301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="29">
         <v>17.8771203464796</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="29">
         <v>6.1702762051350701</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="29">
         <v>5.3243395698133602</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="29">
         <v>5.2942398955480297</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="31">
         <v>3.2168172262605399</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="32">
         <v>60</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="29">
         <v>141</v>
       </c>
-      <c r="O40" s="28">
-        <v>14.9047718233982</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="O40" s="31">
+        <v>14.9047718234666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="18">
         <v>84.246486252488793</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="18">
         <v>8.4266502297118393</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="18">
         <v>2.0646191424768601</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="18">
         <v>1.9409584250156799</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="19">
         <v>0.69192392272356995</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="53">
         <v>1</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="18">
         <v>2</v>
       </c>
-      <c r="O41" s="20" t="s">
+      <c r="O41" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="18">
         <v>36.257708950814703</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="18">
         <v>31.7720210452724</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="18">
         <v>9.0293935457028596</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="18">
         <v>8.2553583659677994</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="19">
         <v>3.2276503321910499</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="53">
         <v>3</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="18">
         <v>6</v>
       </c>
-      <c r="O42" s="20">
-        <v>42.132706397849198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="O42" s="19">
+        <v>42.567500208991703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="29">
         <v>14.855265632948299</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="29">
         <v>13.6497076980692</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="29">
         <v>9.9199217889260698</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="29">
         <v>4.8097064081993803</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K43" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L43" s="31">
         <v>3.7931033156994798</v>
       </c>
-      <c r="M43" s="26">
+      <c r="M43" s="32">
         <v>26</v>
       </c>
-      <c r="N43" s="27">
+      <c r="N43" s="29">
         <v>79</v>
       </c>
-      <c r="O43" s="28">
-        <v>44.809639155649101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="O43" s="31">
+        <v>44.809639156712301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="35">
         <v>13.1480007806122</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="35">
         <v>4.2181122455012003</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="35">
         <v>4.0784726892374001</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="35">
         <v>3.9766477641778799</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L44" s="37">
         <v>3.8147626110674602</v>
       </c>
-      <c r="M44" s="26">
+      <c r="M44" s="38">
         <v>56</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="35">
         <v>136</v>
       </c>
-      <c r="O44" s="28">
-        <v>50.181713982310903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+      <c r="O44" s="37">
+        <v>50.285505297433403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="42">
         <v>22.5810933471498</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="42">
         <v>17.979599169937401</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="34">
+      <c r="H45" s="42">
         <v>5.9305230089305399</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="56">
         <v>3.9457329104263801</v>
       </c>
-      <c r="K45" s="35" t="s">
+      <c r="K45" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="57">
         <v>3.48608511114436</v>
       </c>
-      <c r="M45" s="37">
+      <c r="M45" s="46">
         <v>29</v>
       </c>
-      <c r="N45" s="38">
+      <c r="N45" s="42">
         <v>120</v>
       </c>
-      <c r="O45" s="39">
-        <v>25.276036379776698</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="O45" s="57">
+        <v>24.475710364644598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="49">
         <v>38.7121146546002</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="49">
         <v>25.3873234160992</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="49">
         <v>8.7816561655225804</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="29">
         <v>5.10430316432294</v>
       </c>
-      <c r="K46" s="24" t="s">
+      <c r="K46" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46" s="31">
         <v>2.8186345242178401</v>
       </c>
-      <c r="M46" s="26">
+      <c r="M46" s="50">
         <v>4</v>
       </c>
-      <c r="N46" s="27">
+      <c r="N46" s="49">
         <v>11</v>
       </c>
-      <c r="O46" s="28">
-        <v>21.744764005738201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="O46" s="31">
+        <v>23.810860690307699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="29">
         <v>82.025001840348594</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="29">
         <v>6.17686550597793</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="29">
         <v>2.1720608074900598</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="29">
         <v>2.0268016181953801</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="31">
         <v>1.9871772087045101</v>
       </c>
-      <c r="M47" s="26">
+      <c r="M47" s="32">
         <v>1</v>
       </c>
-      <c r="N47" s="27">
+      <c r="N47" s="29">
         <v>3</v>
       </c>
-      <c r="O47" s="28">
-        <v>29.204911018794501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="O47" s="31">
+        <v>28.9660109866246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="18">
         <v>54.486880032571896</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="18">
         <v>6.2902256803804297</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="18">
         <v>4.5719535002477096</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="18">
         <v>3.6967141134235599</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="19">
         <v>3.19502909848846</v>
       </c>
-      <c r="M48" s="18">
+      <c r="M48" s="53">
         <v>6</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N48" s="18">
         <v>15</v>
       </c>
-      <c r="O48" s="20">
-        <v>34.634549117528302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="O48" s="19">
+        <v>35.592160010869698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="29">
         <v>18.938146856731802</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="29">
         <v>12.016014479896301</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="29">
         <v>12.0067900720154</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="29">
         <v>10.714334413271301</v>
       </c>
-      <c r="K49" s="24" t="s">
+      <c r="K49" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L49" s="31">
         <v>6.1374414540000899</v>
       </c>
-      <c r="M49" s="26">
+      <c r="M49" s="32">
         <v>9</v>
       </c>
-      <c r="N49" s="27">
+      <c r="N49" s="29">
         <v>24</v>
       </c>
-      <c r="O49" s="28">
-        <v>24.978151164993001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="O49" s="31">
+        <v>24.122120703777899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="29">
         <v>20.7392406188218</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="29">
         <v>10.2808660574266</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="29">
         <v>9.0982944191045494</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="29">
         <v>8.8639488004495508</v>
       </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="31">
         <v>8.5640926387138698</v>
       </c>
-      <c r="M50" s="26">
+      <c r="M50" s="32">
         <v>9</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="29">
         <v>17</v>
       </c>
-      <c r="O50" s="28">
-        <v>10.9097835591758</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="O50" s="31">
+        <v>12.388138016448201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -4226,2238 +4257,2238 @@
       <c r="M51" s="26">
         <v>3</v>
       </c>
-      <c r="N51" s="27">
+      <c r="N51" s="23">
         <v>11</v>
       </c>
-      <c r="O51" s="28">
-        <v>35.635431178133402</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="O51" s="25">
+        <v>35.635431177342703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="29">
         <v>50.388311507403003</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="29">
         <v>45.064079352395403</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="29">
         <v>0.95999063051030997</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="29">
         <v>0.69151293526932001</v>
       </c>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="31">
         <v>0.40808297295027002</v>
       </c>
-      <c r="M52" s="26">
+      <c r="M52" s="32">
         <v>2</v>
       </c>
-      <c r="N52" s="27">
+      <c r="N52" s="29">
         <v>2</v>
       </c>
-      <c r="O52" s="28">
-        <v>41.119612001511101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="O52" s="31">
+        <v>42.310542818440403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="29">
         <v>93.344160748707395</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="29">
         <v>5.2781132278824803</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="29">
         <v>0.27562524437372998</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="29">
         <v>0.23064756053659</v>
       </c>
-      <c r="K53" s="24" t="s">
+      <c r="K53" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="31">
         <v>0.16698926529953001</v>
       </c>
-      <c r="M53" s="26">
+      <c r="M53" s="32">
         <v>1</v>
       </c>
-      <c r="N53" s="27">
+      <c r="N53" s="29">
         <v>1</v>
       </c>
-      <c r="O53" s="28">
-        <v>15.386188486864899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="O53" s="31">
+        <v>15.386188515194901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="29">
         <v>35.627232281676598</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="29">
         <v>17.745962000658999</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="29">
         <v>14.8157303671984</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="I54" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="29">
         <v>11.017976396935399</v>
       </c>
-      <c r="K54" s="24" t="s">
+      <c r="K54" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L54" s="31">
         <v>5.5333472569567901</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M54" s="32">
         <v>4</v>
       </c>
-      <c r="N54" s="27">
+      <c r="N54" s="29">
         <v>7</v>
       </c>
-      <c r="O54" s="28">
-        <v>31.425242044428401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="O54" s="31">
+        <v>32.045142879483898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="29">
         <v>95.918452421424902</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="29">
         <v>1.37974793104529</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="29">
         <v>0.52530142503113997</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I55" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="29">
         <v>0.41124598029045001</v>
       </c>
-      <c r="K55" s="24" t="s">
+      <c r="K55" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="L55" s="25">
+      <c r="L55" s="31">
         <v>0.16379284226394999</v>
       </c>
-      <c r="M55" s="26">
+      <c r="M55" s="32">
         <v>1</v>
       </c>
-      <c r="N55" s="27">
+      <c r="N55" s="29">
         <v>1</v>
       </c>
-      <c r="O55" s="28">
-        <v>28.6019544948042</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="O55" s="31">
+        <v>31.298871043211602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="29">
         <v>72.406588736687397</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="29">
         <v>9.0873341647059807</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="29">
         <v>4.6640011031004702</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="29">
         <v>4.3286762142017903</v>
       </c>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="31">
         <v>4.2013532644365501</v>
       </c>
-      <c r="M56" s="26">
+      <c r="M56" s="32">
         <v>2</v>
       </c>
-      <c r="N56" s="27">
+      <c r="N56" s="29">
         <v>4</v>
       </c>
-      <c r="O56" s="28">
-        <v>11.8621777106518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="O56" s="31">
+        <v>11.815640404023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="29">
         <v>73.743794677333995</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="29">
         <v>12.7378704355071</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="29">
         <v>2.8258967791549101</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I57" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="29">
         <v>1.47921748245466</v>
       </c>
-      <c r="K57" s="24" t="s">
+      <c r="K57" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L57" s="25">
+      <c r="L57" s="31">
         <v>1.1252569452274299</v>
       </c>
-      <c r="M57" s="26">
+      <c r="M57" s="32">
         <v>2</v>
       </c>
-      <c r="N57" s="27">
+      <c r="N57" s="29">
         <v>4</v>
       </c>
-      <c r="O57" s="28">
-        <v>14.4731112988897</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="O57" s="31">
+        <v>14.473111298437599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="29">
         <v>15.501663467376501</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="29">
         <v>13.6565286689116</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="29">
         <v>13.3084848103237</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I58" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="29">
         <v>5.2905327788973997</v>
       </c>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="L58" s="25">
+      <c r="L58" s="31">
         <v>4.4889540907390799</v>
       </c>
-      <c r="M58" s="26">
+      <c r="M58" s="32">
         <v>18</v>
       </c>
-      <c r="N58" s="27">
+      <c r="N58" s="29">
         <v>53</v>
       </c>
-      <c r="O58" s="28">
-        <v>26.7927265090423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="O58" s="31">
+        <v>26.958167664791699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="29">
         <v>41.714510297857302</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="29">
         <v>19.241134774865301</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="29">
         <v>8.7739192771333592</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="29">
         <v>6.6023345120060499</v>
       </c>
-      <c r="K59" s="24" t="s">
+      <c r="K59" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L59" s="31">
         <v>4.4844761576668297</v>
       </c>
-      <c r="M59" s="26">
+      <c r="M59" s="32">
         <v>4</v>
       </c>
-      <c r="N59" s="27">
+      <c r="N59" s="29">
         <v>9</v>
       </c>
-      <c r="O59" s="28">
-        <v>31.642449028967899</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="O59" s="31">
+        <v>28.727712760121701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="60">
         <v>25.986044242503802</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="60">
         <v>24.891237562382901</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="60">
         <v>9.4630616124441609</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="I60" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="60">
         <v>5.1935160428085503</v>
       </c>
-      <c r="K60" s="24" t="s">
+      <c r="K60" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L60" s="25">
+      <c r="L60" s="62">
         <v>2.3001679418605598</v>
       </c>
-      <c r="M60" s="26">
+      <c r="M60" s="63">
         <v>9</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N60" s="60">
         <v>22</v>
       </c>
-      <c r="O60" s="28">
-        <v>29.157900432635699</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
+      <c r="O60" s="62">
+        <v>30.770450061396701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="42">
         <v>37.998184977827897</v>
       </c>
-      <c r="E61" s="44" t="s">
+      <c r="E61" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="43">
+      <c r="F61" s="42">
         <v>24.2199837739545</v>
       </c>
-      <c r="G61" s="44" t="s">
+      <c r="G61" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="42">
         <v>5.9598886828520898</v>
       </c>
-      <c r="I61" s="44" t="s">
+      <c r="I61" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="43">
+      <c r="J61" s="56">
         <v>3.4505715455294999</v>
       </c>
-      <c r="K61" s="44" t="s">
+      <c r="K61" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="L61" s="45">
+      <c r="L61" s="57">
         <v>3.3075027332926799</v>
       </c>
       <c r="M61" s="46">
         <v>6</v>
       </c>
-      <c r="N61" s="47">
+      <c r="N61" s="42">
         <v>22</v>
       </c>
-      <c r="O61" s="48">
-        <v>19.9754155820244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
+      <c r="O61" s="57">
+        <v>20.051232902647701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="67">
         <v>23.1939102994879</v>
       </c>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="52">
+      <c r="F62" s="67">
         <v>10.9711412078812</v>
       </c>
-      <c r="G62" s="53" t="s">
+      <c r="G62" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="52">
+      <c r="H62" s="67">
         <v>8.1764323186329602</v>
       </c>
-      <c r="I62" s="53" t="s">
+      <c r="I62" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="J62" s="52">
+      <c r="J62" s="67">
         <v>3.1502809023381202</v>
       </c>
-      <c r="K62" s="53" t="s">
+      <c r="K62" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="L62" s="54">
+      <c r="L62" s="69">
         <v>3.07011135722178</v>
       </c>
-      <c r="M62" s="55">
+      <c r="M62" s="70">
         <v>36</v>
       </c>
-      <c r="N62" s="56">
+      <c r="N62" s="67">
         <v>154</v>
       </c>
-      <c r="O62" s="57">
-        <v>24.822543558080099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49" t="s">
+      <c r="O62" s="69">
+        <v>24.587225242248401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="60">
+      <c r="D63" s="73">
         <v>5.7403258292912804</v>
       </c>
-      <c r="E63" s="61" t="s">
+      <c r="E63" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="60">
+      <c r="F63" s="73">
         <v>4.6751412914443602</v>
       </c>
-      <c r="G63" s="61" t="s">
+      <c r="G63" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="60">
+      <c r="H63" s="73">
         <v>3.4381972525056801</v>
       </c>
-      <c r="I63" s="61" t="s">
+      <c r="I63" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="60">
+      <c r="J63" s="67">
         <v>3.4308175613902598</v>
       </c>
-      <c r="K63" s="61" t="s">
+      <c r="K63" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="L63" s="62">
+      <c r="L63" s="69">
         <v>3.2415188850353802</v>
       </c>
-      <c r="M63" s="63">
+      <c r="M63" s="74">
         <v>167</v>
       </c>
-      <c r="N63" s="64">
+      <c r="N63" s="73">
         <v>378</v>
       </c>
-      <c r="O63" s="65">
-        <v>31.630167074629998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+      <c r="O63" s="69">
+        <v>31.631298662627898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="67" t="s">
+      <c r="B64" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="69">
+      <c r="D64" s="78">
         <v>9.4119992690997698</v>
       </c>
-      <c r="E64" s="70" t="s">
+      <c r="E64" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="69">
+      <c r="F64" s="78">
         <v>4.0288372056716399</v>
       </c>
-      <c r="G64" s="70" t="s">
+      <c r="G64" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="H64" s="69">
+      <c r="H64" s="78">
         <v>3.7974646270958101</v>
       </c>
-      <c r="I64" s="70" t="s">
+      <c r="I64" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="69">
+      <c r="J64" s="73">
         <v>3.3665678895355899</v>
       </c>
-      <c r="K64" s="70" t="s">
+      <c r="K64" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="L64" s="71">
+      <c r="L64" s="80">
         <v>2.9923263741889099</v>
       </c>
-      <c r="M64" s="72">
+      <c r="M64" s="81">
         <v>89</v>
       </c>
-      <c r="N64" s="73">
+      <c r="N64" s="78">
         <v>222</v>
       </c>
-      <c r="O64" s="74">
-        <v>28.498230682059901</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="66" t="s">
+      <c r="O64" s="80">
+        <v>28.510709152810101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="D65" s="76">
+      <c r="D65" s="83">
         <v>6.2619359025627297</v>
       </c>
-      <c r="E65" s="77" t="s">
+      <c r="E65" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="76">
+      <c r="F65" s="83">
         <v>5.8054988115953297</v>
       </c>
-      <c r="G65" s="77" t="s">
+      <c r="G65" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="H65" s="76">
+      <c r="H65" s="83">
         <v>4.6530787206675797</v>
       </c>
-      <c r="I65" s="77" t="s">
+      <c r="I65" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="76">
+      <c r="J65" s="83">
         <v>3.28704072721965</v>
       </c>
-      <c r="K65" s="77" t="s">
+      <c r="K65" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="L65" s="62">
+      <c r="L65" s="85">
         <v>2.1244778797869901</v>
       </c>
-      <c r="M65" s="78">
+      <c r="M65" s="86">
         <v>153</v>
       </c>
-      <c r="N65" s="79">
+      <c r="N65" s="83">
         <v>347</v>
       </c>
-      <c r="O65" s="65">
-        <v>25.8515431948159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="66" t="s">
+      <c r="O65" s="85">
+        <v>25.907680794959202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="80" t="s">
+      <c r="B66" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="81" t="s">
+      <c r="C66" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="82">
+      <c r="D66" s="89">
         <v>6.3060215881967698</v>
       </c>
-      <c r="E66" s="83" t="s">
+      <c r="E66" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="82">
+      <c r="F66" s="89">
         <v>4.6231199643492698</v>
       </c>
-      <c r="G66" s="83" t="s">
+      <c r="G66" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="82">
+      <c r="H66" s="89">
         <v>3.5846297565961001</v>
       </c>
-      <c r="I66" s="83" t="s">
+      <c r="I66" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="J66" s="82">
+      <c r="J66" s="89">
         <v>3.3858335257378198</v>
       </c>
-      <c r="K66" s="83" t="s">
+      <c r="K66" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="L66" s="84">
+      <c r="L66" s="91">
         <v>3.1393031145663999</v>
       </c>
-      <c r="M66" s="85">
+      <c r="M66" s="92">
         <v>167</v>
       </c>
-      <c r="N66" s="86">
+      <c r="N66" s="89">
         <v>381</v>
       </c>
-      <c r="O66" s="87">
-        <v>31.285203530243301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="66" t="s">
+      <c r="O66" s="91">
+        <v>31.271925074722201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="89" t="s">
+      <c r="C67" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="90">
+      <c r="D67" s="83">
         <v>17.947378568431699</v>
       </c>
-      <c r="E67" s="91" t="s">
+      <c r="E67" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="F67" s="90">
+      <c r="F67" s="83">
         <v>9.6032068209534494</v>
       </c>
-      <c r="G67" s="91" t="s">
+      <c r="G67" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H67" s="90">
+      <c r="H67" s="83">
         <v>7.1568232080624501</v>
       </c>
-      <c r="I67" s="91" t="s">
+      <c r="I67" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="90">
+      <c r="J67" s="83">
         <v>6.3863225150306704</v>
       </c>
-      <c r="K67" s="91" t="s">
+      <c r="K67" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="71">
+      <c r="L67" s="85">
         <v>3.9833189332579</v>
       </c>
-      <c r="M67" s="92">
+      <c r="M67" s="86">
         <v>55</v>
       </c>
-      <c r="N67" s="93">
+      <c r="N67" s="83">
         <v>175</v>
       </c>
-      <c r="O67" s="74">
-        <v>18.679453875550902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="66" t="s">
+      <c r="O67" s="85">
+        <v>18.735784196534699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="76">
+      <c r="D68" s="83">
         <v>29.467268652960499</v>
       </c>
-      <c r="E68" s="77" t="s">
+      <c r="E68" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="76">
+      <c r="F68" s="83">
         <v>13.612693010847099</v>
       </c>
-      <c r="G68" s="77" t="s">
+      <c r="G68" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="76">
+      <c r="H68" s="83">
         <v>6.6587246309740999</v>
       </c>
-      <c r="I68" s="77" t="s">
+      <c r="I68" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="76">
+      <c r="J68" s="83">
         <v>3.0405712517833701</v>
       </c>
-      <c r="K68" s="77" t="s">
+      <c r="K68" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="L68" s="62">
+      <c r="L68" s="85">
         <v>2.7038358662848201</v>
       </c>
-      <c r="M68" s="78">
+      <c r="M68" s="86">
         <v>28</v>
       </c>
-      <c r="N68" s="79">
+      <c r="N68" s="83">
         <v>127</v>
       </c>
-      <c r="O68" s="65">
-        <v>21.513180212686098</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="66" t="s">
+      <c r="O68" s="85">
+        <v>21.5648415770669</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="76">
+      <c r="D69" s="83">
         <v>31.8128115521063</v>
       </c>
-      <c r="E69" s="77" t="s">
+      <c r="E69" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="76">
+      <c r="F69" s="83">
         <v>11.561821680174599</v>
       </c>
-      <c r="G69" s="77" t="s">
+      <c r="G69" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="H69" s="76">
+      <c r="H69" s="83">
         <v>11.447752450765501</v>
       </c>
-      <c r="I69" s="77" t="s">
+      <c r="I69" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="J69" s="76">
+      <c r="J69" s="83">
         <v>5.0195892444899997</v>
       </c>
-      <c r="K69" s="77" t="s">
+      <c r="K69" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="L69" s="62">
+      <c r="L69" s="85">
         <v>3.3991660627003002</v>
       </c>
-      <c r="M69" s="78">
+      <c r="M69" s="86">
         <v>11</v>
       </c>
-      <c r="N69" s="79">
+      <c r="N69" s="83">
         <v>62</v>
       </c>
-      <c r="O69" s="65">
-        <v>18.823781531237302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="66" t="s">
+      <c r="O69" s="85">
+        <v>18.809653949897001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="75" t="s">
+      <c r="C70" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="76">
+      <c r="D70" s="83">
         <v>50.655976909280398</v>
       </c>
-      <c r="E70" s="77" t="s">
+      <c r="E70" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="F70" s="76">
+      <c r="F70" s="83">
         <v>15.6010421128701</v>
       </c>
-      <c r="G70" s="77" t="s">
+      <c r="G70" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="76">
+      <c r="H70" s="83">
         <v>8.7578009936379999</v>
       </c>
-      <c r="I70" s="77" t="s">
+      <c r="I70" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="J70" s="76">
+      <c r="J70" s="83">
         <v>4.78168618391779</v>
       </c>
-      <c r="K70" s="77" t="s">
+      <c r="K70" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L70" s="62">
+      <c r="L70" s="85">
         <v>4.2343755593175603</v>
       </c>
-      <c r="M70" s="78">
+      <c r="M70" s="86">
         <v>3</v>
       </c>
-      <c r="N70" s="79">
+      <c r="N70" s="83">
         <v>10</v>
       </c>
-      <c r="O70" s="65">
-        <v>38.576231366083803</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
+      <c r="O70" s="85">
+        <v>37.809898682305302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="75" t="s">
+      <c r="C71" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="76">
+      <c r="D71" s="83">
         <v>37.998184977827897</v>
       </c>
-      <c r="E71" s="77" t="s">
+      <c r="E71" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="76">
+      <c r="F71" s="83">
         <v>24.2199837739545</v>
       </c>
-      <c r="G71" s="77" t="s">
+      <c r="G71" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="76">
+      <c r="H71" s="83">
         <v>5.9598886828520996</v>
       </c>
-      <c r="I71" s="77" t="s">
+      <c r="I71" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="76">
+      <c r="J71" s="83">
         <v>3.4505715455294999</v>
       </c>
-      <c r="K71" s="77" t="s">
+      <c r="K71" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="L71" s="62">
+      <c r="L71" s="85">
         <v>3.3075027332926799</v>
       </c>
-      <c r="M71" s="78">
+      <c r="M71" s="86">
         <v>6</v>
       </c>
-      <c r="N71" s="79">
+      <c r="N71" s="83">
         <v>22</v>
       </c>
-      <c r="O71" s="65">
-        <v>19.9754155820244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="66" t="s">
+      <c r="O71" s="85">
+        <v>20.051232902647701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="75" t="s">
+      <c r="C72" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="76">
+      <c r="D72" s="83">
         <v>23.055765715030599</v>
       </c>
-      <c r="E72" s="77" t="s">
+      <c r="E72" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="F72" s="76">
+      <c r="F72" s="83">
         <v>11.649424574630901</v>
       </c>
-      <c r="G72" s="77" t="s">
+      <c r="G72" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="76">
+      <c r="H72" s="83">
         <v>6.2777754690765004</v>
       </c>
-      <c r="I72" s="77" t="s">
+      <c r="I72" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="J72" s="76">
+      <c r="J72" s="83">
         <v>5.04594464912718</v>
       </c>
-      <c r="K72" s="77" t="s">
+      <c r="K72" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="L72" s="62">
+      <c r="L72" s="85">
         <v>4.1748044779184399</v>
       </c>
-      <c r="M72" s="78">
+      <c r="M72" s="86">
         <v>28</v>
       </c>
-      <c r="N72" s="79">
+      <c r="N72" s="83">
         <v>99</v>
       </c>
-      <c r="O72" s="65">
-        <v>13.6566854942887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="66" t="s">
+      <c r="O72" s="85">
+        <v>13.8240850142389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="C73" s="75" t="s">
+      <c r="C73" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="76">
+      <c r="D73" s="83">
         <v>13.3135850922681</v>
       </c>
-      <c r="E73" s="77" t="s">
+      <c r="E73" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="76">
+      <c r="F73" s="83">
         <v>10.834043782657499</v>
       </c>
-      <c r="G73" s="77" t="s">
+      <c r="G73" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="76">
+      <c r="H73" s="83">
         <v>6.8636116500679201</v>
       </c>
-      <c r="I73" s="77" t="s">
+      <c r="I73" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="J73" s="76">
+      <c r="J73" s="83">
         <v>6.5603929904178599</v>
       </c>
-      <c r="K73" s="77" t="s">
+      <c r="K73" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="L73" s="62">
+      <c r="L73" s="85">
         <v>6.2767307118568203</v>
       </c>
-      <c r="M73" s="78">
+      <c r="M73" s="86">
         <v>26</v>
       </c>
-      <c r="N73" s="79">
+      <c r="N73" s="83">
         <v>130</v>
       </c>
-      <c r="O73" s="65">
-        <v>33.852433716693398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="66" t="s">
+      <c r="O73" s="85">
+        <v>33.945571531824797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="75" t="s">
+      <c r="C74" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="76">
+      <c r="D74" s="83">
         <v>28.059937967163599</v>
       </c>
-      <c r="E74" s="77" t="s">
+      <c r="E74" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="76">
+      <c r="F74" s="83">
         <v>18.012135158907999</v>
       </c>
-      <c r="G74" s="77" t="s">
+      <c r="G74" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="76">
+      <c r="H74" s="83">
         <v>6.13253645581299</v>
       </c>
-      <c r="I74" s="77" t="s">
+      <c r="I74" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="J74" s="76">
+      <c r="J74" s="83">
         <v>4.4911781004376099</v>
       </c>
-      <c r="K74" s="77" t="s">
+      <c r="K74" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="L74" s="62">
+      <c r="L74" s="85">
         <v>4.4277403798086103</v>
       </c>
-      <c r="M74" s="78">
+      <c r="M74" s="86">
         <v>15</v>
       </c>
-      <c r="N74" s="79">
+      <c r="N74" s="83">
         <v>63</v>
       </c>
-      <c r="O74" s="65">
-        <v>40.621778131655702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="66" t="s">
+      <c r="O74" s="85">
+        <v>37.645671089897299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="81" t="s">
+      <c r="C75" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="82">
+      <c r="D75" s="73">
         <v>59.767373886822298</v>
       </c>
-      <c r="E75" s="83" t="s">
+      <c r="E75" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="82">
+      <c r="F75" s="73">
         <v>10.9525972928506</v>
       </c>
-      <c r="G75" s="83" t="s">
+      <c r="G75" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="82">
+      <c r="H75" s="73">
         <v>7.5889878217636904</v>
       </c>
-      <c r="I75" s="83" t="s">
+      <c r="I75" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="82">
+      <c r="J75" s="89">
         <v>5.1937868319365998</v>
       </c>
-      <c r="K75" s="83" t="s">
+      <c r="K75" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="L75" s="84">
+      <c r="L75" s="91">
         <v>3.0254571858694299</v>
       </c>
-      <c r="M75" s="85">
+      <c r="M75" s="74">
         <v>3</v>
       </c>
-      <c r="N75" s="86">
+      <c r="N75" s="73">
         <v>8</v>
       </c>
-      <c r="O75" s="87">
-        <v>41.492538920128702</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="66" t="s">
+      <c r="O75" s="91">
+        <v>41.827749207960302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="88" t="s">
+      <c r="B76" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="C76" s="89" t="s">
+      <c r="C76" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="90">
+      <c r="D76" s="95">
         <v>11.000908378194801</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="90">
+      <c r="F76" s="95">
         <v>6.0678358176608302</v>
       </c>
-      <c r="G76" s="91" t="s">
+      <c r="G76" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="H76" s="90">
+      <c r="H76" s="95">
         <v>4.8013568516055196</v>
       </c>
-      <c r="I76" s="91" t="s">
+      <c r="I76" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="J76" s="90">
+      <c r="J76" s="83">
         <v>2.8721563381084798</v>
       </c>
-      <c r="K76" s="91" t="s">
+      <c r="K76" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="L76" s="71">
+      <c r="L76" s="85">
         <v>2.7944349671319499</v>
       </c>
-      <c r="M76" s="92">
+      <c r="M76" s="96">
         <v>103</v>
       </c>
-      <c r="N76" s="93">
+      <c r="N76" s="95">
         <v>242</v>
       </c>
-      <c r="O76" s="74">
-        <v>56.994975757554002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66" t="s">
+      <c r="O76" s="85">
+        <v>56.879701027167002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="75" t="s">
+      <c r="C77" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="76">
+      <c r="D77" s="83">
         <v>12.136957589836999</v>
       </c>
-      <c r="E77" s="77" t="s">
+      <c r="E77" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="F77" s="76">
+      <c r="F77" s="83">
         <v>7.0978194312692002</v>
       </c>
-      <c r="G77" s="77" t="s">
+      <c r="G77" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H77" s="76">
+      <c r="H77" s="83">
         <v>5.4331839248409199</v>
       </c>
-      <c r="I77" s="77" t="s">
+      <c r="I77" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J77" s="76">
+      <c r="J77" s="83">
         <v>4.5022137279937597</v>
       </c>
-      <c r="K77" s="77" t="s">
+      <c r="K77" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="L77" s="62">
+      <c r="L77" s="85">
         <v>3.48066952154876</v>
       </c>
-      <c r="M77" s="78">
+      <c r="M77" s="86">
         <v>49</v>
       </c>
-      <c r="N77" s="79">
+      <c r="N77" s="83">
         <v>156</v>
       </c>
-      <c r="O77" s="65">
-        <v>22.377834632562401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="66" t="s">
+      <c r="O77" s="85">
+        <v>22.237804669913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="75" t="s">
+      <c r="C78" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="76">
+      <c r="D78" s="83">
         <v>5.4797208965547402</v>
       </c>
-      <c r="E78" s="77" t="s">
+      <c r="E78" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="76">
+      <c r="F78" s="83">
         <v>4.3624103618761403</v>
       </c>
-      <c r="G78" s="77" t="s">
+      <c r="G78" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="76">
+      <c r="H78" s="83">
         <v>3.8140410332385901</v>
       </c>
-      <c r="I78" s="77" t="s">
+      <c r="I78" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="J78" s="76">
+      <c r="J78" s="83">
         <v>3.0827102503486299</v>
       </c>
-      <c r="K78" s="77" t="s">
+      <c r="K78" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="L78" s="62">
+      <c r="L78" s="85">
         <v>2.7086272641795999</v>
       </c>
-      <c r="M78" s="78">
+      <c r="M78" s="86">
         <v>182</v>
       </c>
-      <c r="N78" s="79">
+      <c r="N78" s="83">
         <v>387</v>
       </c>
-      <c r="O78" s="65">
-        <v>55.864516608549799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="66" t="s">
+      <c r="O78" s="85">
+        <v>55.949318143443101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="80" t="s">
+      <c r="B79" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="81" t="s">
+      <c r="C79" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="82">
+      <c r="D79" s="89">
         <v>5.1266497024134798</v>
       </c>
-      <c r="E79" s="83" t="s">
+      <c r="E79" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="82">
+      <c r="F79" s="89">
         <v>4.0292780150692504</v>
       </c>
-      <c r="G79" s="83" t="s">
+      <c r="G79" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="82">
+      <c r="H79" s="89">
         <v>3.7461207684839599</v>
       </c>
-      <c r="I79" s="83" t="s">
+      <c r="I79" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J79" s="82">
+      <c r="J79" s="89">
         <v>3.1423400812779501</v>
       </c>
-      <c r="K79" s="83" t="s">
+      <c r="K79" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="L79" s="84">
+      <c r="L79" s="91">
         <v>3.1406532111062799</v>
       </c>
-      <c r="M79" s="85">
+      <c r="M79" s="92">
         <v>161</v>
       </c>
-      <c r="N79" s="86">
+      <c r="N79" s="89">
         <v>360</v>
       </c>
-      <c r="O79" s="87">
-        <v>33.448077754562298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="66" t="s">
+      <c r="O79" s="91">
+        <v>33.411882715124399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="88" t="s">
+      <c r="B80" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="89" t="s">
+      <c r="C80" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="90">
+      <c r="D80" s="83">
         <v>56.863942127365597</v>
       </c>
-      <c r="E80" s="91" t="s">
+      <c r="E80" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="90">
+      <c r="F80" s="83">
         <v>21.113820161023298</v>
       </c>
-      <c r="G80" s="91" t="s">
+      <c r="G80" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="90">
+      <c r="H80" s="83">
         <v>5.5656145285118299</v>
       </c>
-      <c r="I80" s="91" t="s">
+      <c r="I80" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J80" s="90">
+      <c r="J80" s="83">
         <v>2.6789995908597999</v>
       </c>
-      <c r="K80" s="91" t="s">
+      <c r="K80" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="L80" s="71">
+      <c r="L80" s="85">
         <v>1.8816530870984101</v>
       </c>
-      <c r="M80" s="92">
+      <c r="M80" s="86">
         <v>2</v>
       </c>
-      <c r="N80" s="93">
+      <c r="N80" s="83">
         <v>7</v>
       </c>
-      <c r="O80" s="74">
-        <v>39.7381078898607</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="66" t="s">
+      <c r="O80" s="85">
+        <v>36.150171598979902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="75" t="s">
+      <c r="C81" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="76">
+      <c r="D81" s="83">
         <v>39.8436644308103</v>
       </c>
-      <c r="E81" s="77" t="s">
+      <c r="E81" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="76">
+      <c r="F81" s="83">
         <v>11.705929555329901</v>
       </c>
-      <c r="G81" s="77" t="s">
+      <c r="G81" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="76">
+      <c r="H81" s="83">
         <v>11.135214843721</v>
       </c>
-      <c r="I81" s="77" t="s">
+      <c r="I81" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="J81" s="76">
+      <c r="J81" s="83">
         <v>3.6732755793237901</v>
       </c>
-      <c r="K81" s="77" t="s">
+      <c r="K81" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="62">
+      <c r="L81" s="85">
         <v>2.3027366414860801</v>
       </c>
-      <c r="M81" s="78">
+      <c r="M81" s="86">
         <v>11</v>
       </c>
-      <c r="N81" s="79">
+      <c r="N81" s="83">
         <v>79</v>
       </c>
-      <c r="O81" s="65">
-        <v>40.422037371976998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="66" t="s">
+      <c r="O81" s="85">
+        <v>40.335633648728397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="58" t="s">
+      <c r="B82" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="75" t="s">
+      <c r="C82" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="76">
+      <c r="D82" s="83">
         <v>14.022922618428099</v>
       </c>
-      <c r="E82" s="77" t="s">
+      <c r="E82" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="76">
+      <c r="F82" s="83">
         <v>11.8892498104229</v>
       </c>
-      <c r="G82" s="77" t="s">
+      <c r="G82" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="76">
+      <c r="H82" s="83">
         <v>3.83272459892456</v>
       </c>
-      <c r="I82" s="77" t="s">
+      <c r="I82" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="J82" s="76">
+      <c r="J82" s="83">
         <v>3.61553337560958</v>
       </c>
-      <c r="K82" s="77" t="s">
+      <c r="K82" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="L82" s="62">
+      <c r="L82" s="85">
         <v>3.4247351040814502</v>
       </c>
-      <c r="M82" s="78">
+      <c r="M82" s="86">
         <v>57</v>
       </c>
-      <c r="N82" s="79">
+      <c r="N82" s="83">
         <v>191</v>
       </c>
-      <c r="O82" s="65">
-        <v>22.744950217844099</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="66" t="s">
+      <c r="O82" s="85">
+        <v>22.8214907392925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="80" t="s">
+      <c r="B83" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="81" t="s">
+      <c r="C83" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="82">
+      <c r="D83" s="73">
         <v>3.99061534998732</v>
       </c>
-      <c r="E83" s="83" t="s">
+      <c r="E83" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="F83" s="82">
+      <c r="F83" s="73">
         <v>3.7248595814996199</v>
       </c>
-      <c r="G83" s="83" t="s">
+      <c r="G83" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="82">
+      <c r="H83" s="73">
         <v>3.5538304818939199</v>
       </c>
-      <c r="I83" s="83" t="s">
+      <c r="I83" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="J83" s="82">
+      <c r="J83" s="89">
         <v>2.8076452894141202</v>
       </c>
-      <c r="K83" s="83" t="s">
+      <c r="K83" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="84">
+      <c r="L83" s="91">
         <v>2.6807082414813799</v>
       </c>
-      <c r="M83" s="85">
+      <c r="M83" s="74">
         <v>178</v>
       </c>
-      <c r="N83" s="86">
+      <c r="N83" s="73">
         <v>392</v>
       </c>
-      <c r="O83" s="87">
-        <v>30.8397492777457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="66" t="s">
+      <c r="O83" s="91">
+        <v>30.845300600351699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="C84" s="89" t="s">
+      <c r="C84" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="90">
+      <c r="D84" s="95">
         <v>27.142737767536602</v>
       </c>
-      <c r="E84" s="91" t="s">
+      <c r="E84" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="90">
+      <c r="F84" s="95">
         <v>17.1607397556926</v>
       </c>
-      <c r="G84" s="91" t="s">
+      <c r="G84" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="H84" s="90">
+      <c r="H84" s="95">
         <v>6.5744843529113899</v>
       </c>
-      <c r="I84" s="91" t="s">
+      <c r="I84" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="J84" s="90">
+      <c r="J84" s="83">
         <v>5.7413078834649101</v>
       </c>
-      <c r="K84" s="91" t="s">
+      <c r="K84" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="71">
+      <c r="L84" s="85">
         <v>3.6286058085521402</v>
       </c>
-      <c r="M84" s="92">
+      <c r="M84" s="96">
         <v>14</v>
       </c>
-      <c r="N84" s="93">
+      <c r="N84" s="95">
         <v>47</v>
       </c>
-      <c r="O84" s="74">
-        <v>21.257246082890699</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="66" t="s">
+      <c r="O84" s="85">
+        <v>21.302383715196601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="75" t="s">
+      <c r="C85" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="76">
+      <c r="D85" s="83">
         <v>23.442673505836801</v>
       </c>
-      <c r="E85" s="77" t="s">
+      <c r="E85" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="76">
+      <c r="F85" s="83">
         <v>7.9500566437305498</v>
       </c>
-      <c r="G85" s="77" t="s">
+      <c r="G85" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="H85" s="76">
+      <c r="H85" s="83">
         <v>5.3450139430594401</v>
       </c>
-      <c r="I85" s="77" t="s">
+      <c r="I85" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="J85" s="76">
+      <c r="J85" s="83">
         <v>3.7026559808615298</v>
       </c>
-      <c r="K85" s="77" t="s">
+      <c r="K85" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="L85" s="62">
+      <c r="L85" s="85">
         <v>3.7025185801678799</v>
       </c>
-      <c r="M85" s="78">
+      <c r="M85" s="86">
         <v>24</v>
       </c>
-      <c r="N85" s="79">
+      <c r="N85" s="83">
         <v>65</v>
       </c>
-      <c r="O85" s="65">
-        <v>10.566950248193001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="66" t="s">
+      <c r="O85" s="85">
+        <v>11.8942385036412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="58" t="s">
+      <c r="B86" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="76">
+      <c r="D86" s="83">
         <v>29.850331765439901</v>
       </c>
-      <c r="E86" s="77" t="s">
+      <c r="E86" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="76">
+      <c r="F86" s="83">
         <v>12.626832758353499</v>
       </c>
-      <c r="G86" s="77" t="s">
+      <c r="G86" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H86" s="76">
+      <c r="H86" s="83">
         <v>7.3875688713372103</v>
       </c>
-      <c r="I86" s="77" t="s">
+      <c r="I86" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="76">
+      <c r="J86" s="83">
         <v>4.0597147753983798</v>
       </c>
-      <c r="K86" s="77" t="s">
+      <c r="K86" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="62">
+      <c r="L86" s="85">
         <v>2.0750013952853901</v>
       </c>
-      <c r="M86" s="78">
+      <c r="M86" s="86">
         <v>27</v>
       </c>
-      <c r="N86" s="79">
+      <c r="N86" s="83">
         <v>126</v>
       </c>
-      <c r="O86" s="65">
-        <v>23.508699749705301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="66" t="s">
+      <c r="O86" s="85">
+        <v>23.1849552058789</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="76">
+      <c r="D87" s="83">
         <v>6.9774939482500198</v>
       </c>
-      <c r="E87" s="77" t="s">
+      <c r="E87" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="F87" s="76">
+      <c r="F87" s="83">
         <v>5.62897965265745</v>
       </c>
-      <c r="G87" s="77" t="s">
+      <c r="G87" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="76">
+      <c r="H87" s="83">
         <v>3.66643153650771</v>
       </c>
-      <c r="I87" s="77" t="s">
+      <c r="I87" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="76">
+      <c r="J87" s="83">
         <v>2.0320590875350399</v>
       </c>
-      <c r="K87" s="77" t="s">
+      <c r="K87" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="L87" s="62">
+      <c r="L87" s="85">
         <v>1.99240446200542</v>
       </c>
-      <c r="M87" s="78">
+      <c r="M87" s="86">
         <v>131</v>
       </c>
-      <c r="N87" s="79">
+      <c r="N87" s="83">
         <v>298</v>
       </c>
-      <c r="O87" s="65">
-        <v>27.650874667300801</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="66" t="s">
+      <c r="O87" s="85">
+        <v>27.7955928547224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="C88" s="75" t="s">
+      <c r="C88" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="76">
+      <c r="D88" s="83">
         <v>17.770165830887201</v>
       </c>
-      <c r="E88" s="77" t="s">
+      <c r="E88" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F88" s="76">
+      <c r="F88" s="83">
         <v>11.0578043848848</v>
       </c>
-      <c r="G88" s="77" t="s">
+      <c r="G88" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="H88" s="76">
+      <c r="H88" s="83">
         <v>8.6583725841710297</v>
       </c>
-      <c r="I88" s="77" t="s">
+      <c r="I88" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J88" s="76">
+      <c r="J88" s="83">
         <v>6.7241544886278302</v>
       </c>
-      <c r="K88" s="77" t="s">
+      <c r="K88" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="L88" s="62">
+      <c r="L88" s="85">
         <v>5.8288960347381202</v>
       </c>
-      <c r="M88" s="78">
+      <c r="M88" s="86">
         <v>24</v>
       </c>
-      <c r="N88" s="79">
+      <c r="N88" s="83">
         <v>126</v>
       </c>
-      <c r="O88" s="65">
-        <v>35.279769860129498</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="66" t="s">
+      <c r="O88" s="85">
+        <v>35.323441874854602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="75" t="s">
+      <c r="C89" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="76">
+      <c r="D89" s="83">
         <v>6.2056465400203802</v>
       </c>
-      <c r="E89" s="77" t="s">
+      <c r="E89" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="F89" s="76">
+      <c r="F89" s="83">
         <v>4.5335121001710998</v>
       </c>
-      <c r="G89" s="77" t="s">
+      <c r="G89" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="H89" s="76">
+      <c r="H89" s="83">
         <v>4.3940667628183299</v>
       </c>
-      <c r="I89" s="77" t="s">
+      <c r="I89" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="J89" s="76">
+      <c r="J89" s="83">
         <v>4.3047762779679903</v>
       </c>
-      <c r="K89" s="77" t="s">
+      <c r="K89" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="L89" s="62">
+      <c r="L89" s="85">
         <v>3.1626342619872099</v>
       </c>
-      <c r="M89" s="78">
+      <c r="M89" s="86">
         <v>157</v>
       </c>
-      <c r="N89" s="79">
+      <c r="N89" s="83">
         <v>355</v>
       </c>
-      <c r="O89" s="65">
-        <v>27.375853049105402</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="66" t="s">
+      <c r="O89" s="85">
+        <v>27.3682020488605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="80" t="s">
+      <c r="B90" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="C90" s="81" t="s">
+      <c r="C90" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="82">
+      <c r="D90" s="89">
         <v>6.0144914898905899</v>
       </c>
-      <c r="E90" s="83" t="s">
+      <c r="E90" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="82">
+      <c r="F90" s="89">
         <v>5.2300207993869297</v>
       </c>
-      <c r="G90" s="83" t="s">
+      <c r="G90" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="H90" s="82">
+      <c r="H90" s="89">
         <v>4.5376087077460303</v>
       </c>
-      <c r="I90" s="83" t="s">
+      <c r="I90" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="J90" s="82">
+      <c r="J90" s="89">
         <v>4.3691672952191203</v>
       </c>
-      <c r="K90" s="83" t="s">
+      <c r="K90" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="L90" s="84">
+      <c r="L90" s="91">
         <v>3.03417221951677</v>
       </c>
-      <c r="M90" s="85">
+      <c r="M90" s="92">
         <v>148</v>
       </c>
-      <c r="N90" s="86">
+      <c r="N90" s="89">
         <v>344</v>
       </c>
-      <c r="O90" s="87">
-        <v>36.184362173951797</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="66" t="s">
+      <c r="O90" s="91">
+        <v>36.147244697029798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="C91" s="75" t="s">
+      <c r="C91" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="76">
+      <c r="D91" s="83">
         <v>22.696234451781802</v>
       </c>
-      <c r="E91" s="77" t="s">
+      <c r="E91" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="76">
+      <c r="F91" s="83">
         <v>19.309472283256301</v>
       </c>
-      <c r="G91" s="77" t="s">
+      <c r="G91" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="H91" s="76">
+      <c r="H91" s="83">
         <v>9.8021544699304108</v>
       </c>
-      <c r="I91" s="77" t="s">
+      <c r="I91" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="J91" s="76">
+      <c r="J91" s="83">
         <v>4.7473979201696803</v>
       </c>
-      <c r="K91" s="77" t="s">
+      <c r="K91" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="L91" s="62">
+      <c r="L91" s="85">
         <v>3.75570031784512</v>
       </c>
-      <c r="M91" s="78">
+      <c r="M91" s="86">
         <v>12</v>
       </c>
-      <c r="N91" s="79">
+      <c r="N91" s="83">
         <v>51</v>
       </c>
-      <c r="O91" s="65">
-        <v>25.169108180879501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="66" t="s">
+      <c r="O91" s="85">
+        <v>25.428252989779399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="58" t="s">
+      <c r="B92" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="D92" s="76">
+      <c r="D92" s="83">
         <v>8.49263952402314</v>
       </c>
-      <c r="E92" s="77" t="s">
+      <c r="E92" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="76">
+      <c r="F92" s="83">
         <v>7.6634391674015196</v>
       </c>
-      <c r="G92" s="77" t="s">
+      <c r="G92" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="76">
+      <c r="H92" s="83">
         <v>7.4894385567475696</v>
       </c>
-      <c r="I92" s="77" t="s">
+      <c r="I92" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="J92" s="76">
+      <c r="J92" s="83">
         <v>6.6421423368127996</v>
       </c>
-      <c r="K92" s="77" t="s">
+      <c r="K92" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="L92" s="62">
+      <c r="L92" s="85">
         <v>4.8804119936860202</v>
       </c>
-      <c r="M92" s="78">
+      <c r="M92" s="86">
         <v>33</v>
       </c>
-      <c r="N92" s="79">
+      <c r="N92" s="83">
         <v>83</v>
       </c>
-      <c r="O92" s="65">
-        <v>17.664998329195299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="66" t="s">
+      <c r="O92" s="85">
+        <v>17.543359946331499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="C93" s="75" t="s">
+      <c r="C93" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="D93" s="76">
+      <c r="D93" s="83">
         <v>15.0063813207815</v>
       </c>
-      <c r="E93" s="77" t="s">
+      <c r="E93" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="F93" s="76">
+      <c r="F93" s="83">
         <v>10.5597532496321</v>
       </c>
-      <c r="G93" s="77" t="s">
+      <c r="G93" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H93" s="76">
+      <c r="H93" s="83">
         <v>5.6012734257415797</v>
       </c>
-      <c r="I93" s="77" t="s">
+      <c r="I93" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="J93" s="76">
+      <c r="J93" s="83">
         <v>5.4858684890034803</v>
       </c>
-      <c r="K93" s="77" t="s">
+      <c r="K93" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L93" s="62">
+      <c r="L93" s="85">
         <v>3.2887477492050299</v>
       </c>
-      <c r="M93" s="78">
+      <c r="M93" s="86">
         <v>39</v>
       </c>
-      <c r="N93" s="79">
+      <c r="N93" s="83">
         <v>105</v>
       </c>
-      <c r="O93" s="65">
-        <v>39.483088857997203</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="66" t="s">
+      <c r="O93" s="85">
+        <v>39.127634027974203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B94" s="58" t="s">
+      <c r="B94" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C94" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="76">
+      <c r="D94" s="83">
         <v>16.7276741347338</v>
       </c>
-      <c r="E94" s="77" t="s">
+      <c r="E94" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="76">
+      <c r="F94" s="83">
         <v>14.675240868183</v>
       </c>
-      <c r="G94" s="77" t="s">
+      <c r="G94" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H94" s="76">
+      <c r="H94" s="83">
         <v>4.5984068192416698</v>
       </c>
-      <c r="I94" s="77" t="s">
+      <c r="I94" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="J94" s="76">
+      <c r="J94" s="83">
         <v>4.3161531310527801</v>
       </c>
-      <c r="K94" s="77" t="s">
+      <c r="K94" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="L94" s="62">
+      <c r="L94" s="85">
         <v>3.4036031142400098</v>
       </c>
-      <c r="M94" s="78">
+      <c r="M94" s="86">
         <v>41</v>
       </c>
-      <c r="N94" s="79">
+      <c r="N94" s="83">
         <v>131</v>
       </c>
-      <c r="O94" s="65">
-        <v>121.71466775722899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="66" t="s">
+      <c r="O94" s="85">
+        <v>121.917568259872</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="75" t="s">
+      <c r="C95" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="76">
+      <c r="D95" s="83">
         <v>36.8552204733408</v>
       </c>
-      <c r="E95" s="77" t="s">
+      <c r="E95" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="76">
+      <c r="F95" s="83">
         <v>11.6194102116796</v>
       </c>
-      <c r="G95" s="77" t="s">
+      <c r="G95" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="76">
+      <c r="H95" s="83">
         <v>9.3533782856046095</v>
       </c>
-      <c r="I95" s="77" t="s">
+      <c r="I95" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="J95" s="76">
+      <c r="J95" s="83">
         <v>5.3951201466763701</v>
       </c>
-      <c r="K95" s="77" t="s">
+      <c r="K95" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="L95" s="62">
+      <c r="L95" s="85">
         <v>3.9646336418515</v>
       </c>
-      <c r="M95" s="78">
+      <c r="M95" s="86">
         <v>9</v>
       </c>
-      <c r="N95" s="79">
+      <c r="N95" s="83">
         <v>52</v>
       </c>
-      <c r="O95" s="65">
-        <v>19.708292893879399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="66" t="s">
+      <c r="O95" s="85">
+        <v>19.976207554401402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="59" t="s">
+      <c r="C96" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="60">
+      <c r="D96" s="73">
         <v>28.000867516177301</v>
       </c>
-      <c r="E96" s="61" t="s">
+      <c r="E96" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="60">
+      <c r="F96" s="73">
         <v>12.7667199407685</v>
       </c>
-      <c r="G96" s="61" t="s">
+      <c r="G96" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="H96" s="60">
+      <c r="H96" s="73">
         <v>9.2364857829113305</v>
       </c>
-      <c r="I96" s="61" t="s">
+      <c r="I96" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="J96" s="60">
+      <c r="J96" s="89">
         <v>3.6339160870036999</v>
       </c>
-      <c r="K96" s="61" t="s">
+      <c r="K96" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="L96" s="62">
+      <c r="L96" s="91">
         <v>2.6902011503740302</v>
       </c>
-      <c r="M96" s="63">
+      <c r="M96" s="74">
         <v>23</v>
       </c>
-      <c r="N96" s="64">
+      <c r="N96" s="73">
         <v>105</v>
       </c>
-      <c r="O96" s="65">
-        <v>36.8757954817751</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="66" t="s">
+      <c r="O96" s="91">
+        <v>36.277438415885797</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B97" s="88" t="s">
+      <c r="B97" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="C97" s="89" t="s">
+      <c r="C97" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="90">
+      <c r="D97" s="95">
         <v>39.8059673030453</v>
       </c>
-      <c r="E97" s="91" t="s">
+      <c r="E97" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="90">
+      <c r="F97" s="95">
         <v>12.589110938591601</v>
       </c>
-      <c r="G97" s="91" t="s">
+      <c r="G97" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="90">
+      <c r="H97" s="95">
         <v>6.6563889540471299</v>
       </c>
-      <c r="I97" s="91" t="s">
+      <c r="I97" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="J97" s="90">
+      <c r="J97" s="83">
         <v>6.36762326148766</v>
       </c>
-      <c r="K97" s="91" t="s">
+      <c r="K97" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="L97" s="71">
+      <c r="L97" s="85">
         <v>2.6372423841970898</v>
       </c>
-      <c r="M97" s="92">
+      <c r="M97" s="96">
         <v>10</v>
       </c>
-      <c r="N97" s="93">
+      <c r="N97" s="95">
         <v>45</v>
       </c>
-      <c r="O97" s="74">
-        <v>19.539726708437399</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="66" t="s">
+      <c r="O97" s="85">
+        <v>19.7151044275437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="80" t="s">
+      <c r="B98" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="C98" s="81" t="s">
+      <c r="C98" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="82">
+      <c r="D98" s="89">
         <v>29.4035834847421</v>
       </c>
-      <c r="E98" s="83" t="s">
+      <c r="E98" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="82">
+      <c r="F98" s="89">
         <v>5.5484892160299202</v>
       </c>
-      <c r="G98" s="83" t="s">
+      <c r="G98" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="H98" s="82">
+      <c r="H98" s="89">
         <v>4.2328057393688896</v>
       </c>
-      <c r="I98" s="83" t="s">
+      <c r="I98" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="J98" s="82">
+      <c r="J98" s="89">
         <v>3.9162203176372499</v>
       </c>
-      <c r="K98" s="83" t="s">
+      <c r="K98" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="L98" s="84">
+      <c r="L98" s="91">
         <v>3.48618478190863</v>
       </c>
-      <c r="M98" s="85">
+      <c r="M98" s="92">
         <v>36</v>
       </c>
-      <c r="N98" s="86">
+      <c r="N98" s="89">
         <v>112</v>
       </c>
-      <c r="O98" s="87">
-        <v>20.798561047527301</v>
+      <c r="O98" s="91">
+        <v>20.911787888602799</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="94"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="96"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="96"/>
-      <c r="I99" s="97"/>
-      <c r="J99" s="96"/>
-      <c r="K99" s="97"/>
-      <c r="L99" s="98"/>
-      <c r="M99" s="99"/>
-      <c r="N99" s="99"/>
-      <c r="O99" s="98"/>
+      <c r="A99" s="98"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="100"/>
+      <c r="D99" s="100"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="100"/>
+      <c r="G99" s="101"/>
+      <c r="H99" s="100"/>
+      <c r="I99" s="101"/>
+      <c r="J99" s="100"/>
+      <c r="K99" s="101"/>
+      <c r="L99" s="102"/>
+      <c r="M99" s="103"/>
+      <c r="N99" s="103"/>
+      <c r="O99" s="102"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -6485,26 +6516,26 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="104" t="s">
+      <c r="B107" s="108" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="104"/>
+      <c r="B108" s="108"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="110" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -6513,21 +6544,28 @@
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="109"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="109"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{ACDCA68A-E3AC-450A-9BC0-CF137FA69374}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BBD8EBBF-48C6-4836-9AD9-A341FD68FD74}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{C2C67B23-4C00-4D10-A5BD-8EF0AB694A13}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{5A1C9559-7620-4396-9514-2B196A69D4A0}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{7F6F3402-4F8E-4D8F-9A47-6E3ED2C70EE7}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{767A64E4-7610-4EE4-93FA-93566A416459}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3F6696B0-B512-4C4D-8A6B-60BA7CD52FBB}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{852A82E5-AC0A-41F0-B067-558DCFE63669}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{604D22AF-7F6A-4AE8-94F7-E93067687A8D}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{37E8AED5-6C1F-403A-B964-8FB2E493AA16}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{7CF76A5B-31F3-4966-A3A7-D0F1C1A1D1DD}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{1134B0A5-C49C-4B38-813E-DE8BE0B3C160}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab18.xlsx
+++ b/AfDD_2024_Annex_Table_Tab18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A30352-3381-433C-803A-B63C103134D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E305A2-F54B-475F-AFD9-311EB5BAFE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C64E827B-AE4C-4184-A538-33EC38A954AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B96CDAD4-CF27-4900-84D9-B307B384FDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1873,7 +1873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6ACA01-7FB7-4424-8226-EEDB161FD5B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA85475-0ED1-4BDF-B092-795B5261450E}">
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6555,12 +6555,12 @@
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3F6696B0-B512-4C4D-8A6B-60BA7CD52FBB}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{852A82E5-AC0A-41F0-B067-558DCFE63669}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{604D22AF-7F6A-4AE8-94F7-E93067687A8D}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{37E8AED5-6C1F-403A-B964-8FB2E493AA16}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{7CF76A5B-31F3-4966-A3A7-D0F1C1A1D1DD}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{1134B0A5-C49C-4B38-813E-DE8BE0B3C160}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7B176208-F4CF-45BE-BFF4-1B68A9554DDB}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{19169C0B-969D-49CD-92ED-2B1F5CF11665}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6F614F52-4F8F-41EB-B7B6-4289A46FEFE4}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{F00F757A-406E-40D2-8324-B11F91E51380}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{09F06B97-3DD7-49EA-AA07-5592012F907A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3412EAC6-9401-4701-8C47-0EC7A8D36214}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab18.xlsx
+++ b/AfDD_2024_Annex_Table_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E305A2-F54B-475F-AFD9-311EB5BAFE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E97456-9DDB-4035-8ED6-254E90145D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B96CDAD4-CF27-4900-84D9-B307B384FDCF}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{3CF77763-E6AD-4770-AAAD-B8CFD890C585}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1110,9 +1110,24 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFD42C2D"/>
       </bottom>
@@ -1123,7 +1138,9 @@
       <right style="medium">
         <color rgb="FFD42C2D"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFD42C2D"/>
       </bottom>
@@ -1185,9 +1202,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFD42C2D"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFD42C2D"/>
       </bottom>
@@ -1198,9 +1213,7 @@
       <right style="medium">
         <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FFD42C2D"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFD42C2D"/>
       </bottom>
@@ -1221,26 +1234,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD42C2D"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD42C2D"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD42C2D"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1264,18 +1264,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1294,16 +1291,16 @@
     <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1312,16 +1309,16 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1330,192 +1327,192 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1528,7 +1525,7 @@
     <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1556,8 +1553,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1873,7 +1870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA85475-0ED1-4BDF-B092-795B5261450E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE57F33D-4F5B-4B20-B1B0-E77B8B695C57}">
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1882,18 +1879,18 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="104" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="104" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="105" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="104" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="105" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="104" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="105" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="104" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" style="105" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="106" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" style="107" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="106" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="103" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="103" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="104" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="103" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="104" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="103" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="104" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="103" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" style="104" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="105" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="106" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1927,28 +1924,28 @@
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="9" t="s">
@@ -1957,4538 +1954,4538 @@
       <c r="N2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>72.999661510212206</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>12.091369490699099</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>9.2674131325819094</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>1.54545565113471</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>1.0584500534642201</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>2</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <v>3</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>40.813442678227403</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>85.3189003250192</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>3.9134945102310401</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>1.7524661963245001</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>1.4745274955013099</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <v>1.1494427188001699</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>1</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <v>3</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <v>43.624379790981301</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>27.317479466488699</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>14.7555768699717</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <v>10.1422365512451</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <v>3.9168240638356799</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <v>3.1822494685188198</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="31">
         <v>13</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="28">
         <v>36</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="30">
         <v>43.829967379074297</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>34.759611080379202</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>8.4422755098997904</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>8.3930894899767594</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>5.8077886173920303</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <v>5.2984184707986701</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <v>9</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="28">
         <v>20</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="30">
         <v>42.694563367900699</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>36.809897691424503</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>18.930598580045601</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <v>7.11477406361508</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <v>6.8298063571553698</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <v>4.8123259770518496</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="31">
         <v>6</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="28">
         <v>19</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="30">
         <v>9.0747867376323406</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>29.495473138057399</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>17.068493747565299</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>7.1980730938566904</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <v>5.9505921773902504</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <v>3.7232072489391799</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="31">
         <v>9</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="28">
         <v>22</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="30">
         <v>51.1178042333338</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>17.727152171262698</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>13.902928889222</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <v>9.2303327939593203</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <v>5.7584328649605103</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="30">
         <v>5.5718834591733604</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <v>13</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <v>37</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="30">
         <v>42.259728200385403</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>15.0584834753162</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>12.6903815332267</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>8.4638608848563806</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>5.5523938665296297</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="30">
         <v>4.5673748565288399</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="31">
         <v>33</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="28">
         <v>150</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="30">
         <v>33.538436009656401</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>44.535100164963403</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>18.799813125193602</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>6.2944463980969001</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>2.7088873670903801</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="24">
         <v>2.2677935146397701</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>6</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="22">
         <v>22</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="24">
         <v>42.729213004668402</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>53.261961686416299</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>12.1745062943188</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="34">
         <v>9.9476492567595596</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <v>5.35009757478407</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="36">
         <v>4.2468888329933101</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="37">
         <v>3</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="34">
         <v>9</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="36">
         <v>23.8201475980708</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>15.3288133818501</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>11.4656155622611</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <v>7.9169587527977097</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="43">
         <v>7.3944358863671598</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <v>6.3429093150364304</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="45">
         <v>24</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="41">
         <v>123</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="44">
         <v>35.549619576237099</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="48">
         <v>28.412764238491501</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="48">
         <v>16.809199499675302</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="48">
         <v>13.975784864646499</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="28">
         <v>5.6197248341988102</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <v>4.9510269021350997</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="49">
         <v>7</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="48">
         <v>14</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="30">
         <v>7.4290142971997897</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>38.751655528365298</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>24.256424519287499</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="28">
         <v>7.6024811517570399</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="28">
         <v>6.4684203156068696</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="30">
         <v>4.0049693534036299</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="31">
         <v>4</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="28">
         <v>10</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <v>19.4743321602155</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>38.941356470155696</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>17.442542250949799</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="28">
         <v>15.4448411983039</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="28">
         <v>6.4693505858626397</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="30">
         <v>4.6341641789011003</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="31">
         <v>4</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="28">
         <v>8</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="30">
         <v>13.7289820231133</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>76.007510858575301</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>19.935991280538101</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>2.4160624547730598</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <v>0.69656299508712005</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <v>0.67337282930150999</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="52">
         <v>1</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="17">
         <v>2</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="18">
         <v>38.233387847591999</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>66.000281634233104</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>26.082444606457202</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>1.77520825161872</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="17">
         <v>1.16002810190393</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <v>0.99153317326658996</v>
       </c>
-      <c r="M18" s="53">
+      <c r="M18" s="52">
         <v>2</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="17">
         <v>2</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="18">
         <v>82.520932154697903</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>57.052585723477101</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>21.030575245614099</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>5.2342383911127</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>4.61148607233162</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="24">
         <v>3.2291300301533399</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="25">
         <v>2</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="22">
         <v>5</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="24">
         <v>42.1405097169824</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>44.051877929499099</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <v>31.271859628781598</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>1.96019823829759</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <v>1.71372767715895</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <v>1.5500801873548899</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="52">
         <v>2</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="17">
         <v>18</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="18">
         <v>56.369554260410503</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>62.028936125766997</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>23.127830021287199</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <v>4.4936863573939698</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <v>3.4498092526709598</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="18">
         <v>2.0698916618746201</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="52">
         <v>2</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="17">
         <v>4</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="18">
         <v>44.845321877273904</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>43.852457334087703</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <v>23.963583985692001</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>7.4426836965553802</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <v>2.7971052232776699</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="36">
         <v>2.42295533525433</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="37">
         <v>3</v>
       </c>
-      <c r="N22" s="35">
+      <c r="N22" s="34">
         <v>17</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="36">
         <v>17.334516380739299</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>34.474672672192199</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>28.168777680009399</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>8.6475500240158407</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="43">
         <v>6.3744901067653403</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="44">
         <v>2.63948632223424</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="45">
         <v>4</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="41">
         <v>11</v>
       </c>
-      <c r="O23" s="45">
+      <c r="O23" s="44">
         <v>37.433046433438903</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="48">
         <v>48.050601678638401</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="48">
         <v>23.141564971006598</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="48">
         <v>11.7917028897131</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="28">
         <v>8.4920045019247894</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="30">
         <v>1.6653903307156099</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="49">
         <v>3</v>
       </c>
-      <c r="N24" s="49">
+      <c r="N24" s="48">
         <v>4</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="30">
         <v>13.5904709826951</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <v>55.115961074506302</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="28">
         <v>16.5947099811771</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="28">
         <v>4.9297090080111996</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <v>2.4802319752215598</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="30">
         <v>1.89822086138668</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>3</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="28">
         <v>12</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="30">
         <v>152.281685951611</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <v>39.300379867487599</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <v>33.233964066530703</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26" s="28">
         <v>24.3542985840254</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <v>1.8858432706406301</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="30">
         <v>0.51629908112139999</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="31">
         <v>3</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="28">
         <v>3</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <v>36.526359242454802</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="28">
         <v>12.8783881096976</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <v>6.0000110710731702</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="28">
         <v>5.5496825934884599</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="30">
         <v>4.9895848029728702</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="31">
         <v>9</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="28">
         <v>36</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="30">
         <v>8.7847747074909392</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>18.942694636622999</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="28">
         <v>9.0225471028551603</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="28">
         <v>4.6507116582292198</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="28">
         <v>3.9615891933071601</v>
       </c>
-      <c r="K28" s="30" t="s">
+      <c r="K28" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="30">
         <v>3.0887338051300599</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="31">
         <v>46</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="28">
         <v>119</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="30">
         <v>12.173903334558499</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <v>22.045424030549199</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <v>13.706336075983</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="28">
         <v>7.2992472559386599</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="28">
         <v>5.3063022049869897</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="30">
         <v>3.5839405753113498</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="31">
         <v>15</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N29" s="28">
         <v>38</v>
       </c>
-      <c r="O29" s="31">
+      <c r="O29" s="30">
         <v>30.417452199998401</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <v>10.2785376943326</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>8.0867857792359406</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="28">
         <v>4.7480986033536396</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="28">
         <v>4.6917623060132199</v>
       </c>
-      <c r="K30" s="30" t="s">
+      <c r="K30" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="30">
         <v>3.3285377529953499</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="31">
         <v>44</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N30" s="28">
         <v>108</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="30">
         <v>38.654775700319099</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <v>30.357624451472699</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <v>6.5141510118120998</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <v>6.2635032249244897</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="28">
         <v>5.1986527784188201</v>
       </c>
-      <c r="K31" s="30" t="s">
+      <c r="K31" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="30">
         <v>4.8558137690434702</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="31">
         <v>14</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="28">
         <v>54</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="30">
         <v>22.4989025754126</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="28">
         <v>41.418161794634997</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="28">
         <v>32.9670056142606</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="28">
         <v>6.85808394014719</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="28">
         <v>1.9929173326107601</v>
       </c>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="30">
         <v>1.8204450064036499</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M32" s="31">
         <v>3</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="28">
         <v>11</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="30">
         <v>109.02150369389101</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <v>43.362549353308601</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>28.580360985582502</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <v>6.9516355637679199</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="28">
         <v>5.6843049111267998</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="30">
         <v>3.7641398101801302</v>
       </c>
-      <c r="M33" s="32">
+      <c r="M33" s="31">
         <v>3</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="28">
         <v>7</v>
       </c>
-      <c r="O33" s="31">
+      <c r="O33" s="30">
         <v>17.313622215918699</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <v>86.520257493531105</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <v>4.4178441683638496</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <v>3.7411263765958802</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="17">
         <v>2.78429363104908</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="18">
         <v>0.54805634001863002</v>
       </c>
-      <c r="M34" s="53">
+      <c r="M34" s="52">
         <v>1</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="17">
         <v>2</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="18">
         <v>58.1138442393083</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="28">
         <v>42.0711730120601</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="28">
         <v>11.9902201585837</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="28">
         <v>11.841605489932199</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="28">
         <v>7.7005092166045799</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="30">
         <v>6.8534893345720702</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="31">
         <v>5</v>
       </c>
-      <c r="N35" s="29">
+      <c r="N35" s="28">
         <v>9</v>
       </c>
-      <c r="O35" s="31">
+      <c r="O35" s="30">
         <v>19.4203637389416</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="28">
         <v>33.249583442066999</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="28">
         <v>13.127939877451601</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="28">
         <v>3.8430444306795999</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="28">
         <v>2.86009337393198</v>
       </c>
-      <c r="K36" s="30" t="s">
+      <c r="K36" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="30">
         <v>2.8567810491402499</v>
       </c>
-      <c r="M36" s="32">
+      <c r="M36" s="31">
         <v>18</v>
       </c>
-      <c r="N36" s="29">
+      <c r="N36" s="28">
         <v>55</v>
       </c>
-      <c r="O36" s="31">
+      <c r="O36" s="30">
         <v>16.041496489134101</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="34">
         <v>48.072351261417502</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="34">
         <v>18.8749339554324</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="34">
         <v>1.7429747081446201</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="34">
         <v>1.5461666680756001</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="36">
         <v>1.5080354647926599</v>
       </c>
-      <c r="M37" s="38">
+      <c r="M37" s="37">
         <v>8</v>
       </c>
-      <c r="N37" s="35">
+      <c r="N37" s="34">
         <v>30</v>
       </c>
-      <c r="O37" s="37">
+      <c r="O37" s="36">
         <v>12.8554791614183</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="41">
         <v>21.900695478958799</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="41">
         <v>6.9601795396510102</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <v>3.6347764330146299</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="43">
         <v>3.06282984700827</v>
       </c>
-      <c r="K38" s="43" t="s">
+      <c r="K38" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="44">
         <v>2.6742053221229201</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="45">
         <v>50</v>
       </c>
-      <c r="N38" s="42">
+      <c r="N38" s="41">
         <v>144</v>
       </c>
-      <c r="O38" s="45">
+      <c r="O38" s="44">
         <v>15.894885496073201</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="15">
         <v>46.674864818244501</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="15">
         <v>27.448020403843699</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="15">
         <v>14.746459358850901</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="17">
         <v>3.5915354172784499</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="18">
         <v>2.1643353601130499</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="19">
         <v>3</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="15">
         <v>4</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="18">
         <v>30.616570795852301</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <v>17.8771203464796</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="28">
         <v>6.1702762051350701</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="28">
         <v>5.3243395698133602</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="28">
         <v>5.2942398955480297</v>
       </c>
-      <c r="K40" s="30" t="s">
+      <c r="K40" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="31">
+      <c r="L40" s="30">
         <v>3.2168172262605399</v>
       </c>
-      <c r="M40" s="32">
+      <c r="M40" s="31">
         <v>60</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N40" s="28">
         <v>141</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="30">
         <v>14.9047718234666</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="17">
         <v>84.246486252488793</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="17">
         <v>8.4266502297118393</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="17">
         <v>2.0646191424768601</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="17">
         <v>1.9409584250156799</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="K41" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="18">
         <v>0.69192392272356995</v>
       </c>
-      <c r="M41" s="53">
+      <c r="M41" s="52">
         <v>1</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="17">
         <v>2</v>
       </c>
-      <c r="O41" s="19" t="s">
+      <c r="O41" s="18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="17">
         <v>36.257708950814703</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="17">
         <v>31.7720210452724</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="17">
         <v>9.0293935457028596</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="17">
         <v>8.2553583659677994</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="K42" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="18">
         <v>3.2276503321910499</v>
       </c>
-      <c r="M42" s="53">
+      <c r="M42" s="52">
         <v>3</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="17">
         <v>6</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="18">
         <v>42.567500208991703</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="28">
         <v>14.855265632948299</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="28">
         <v>13.6497076980692</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="28">
         <v>9.9199217889260698</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="28">
         <v>4.8097064081993803</v>
       </c>
-      <c r="K43" s="30" t="s">
+      <c r="K43" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="L43" s="31">
+      <c r="L43" s="30">
         <v>3.7931033156994798</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="31">
         <v>26</v>
       </c>
-      <c r="N43" s="29">
+      <c r="N43" s="28">
         <v>79</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="30">
         <v>44.809639156712301</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="34">
         <v>13.1480007806122</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="34">
         <v>4.2181122455012003</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="34">
         <v>4.0784726892374001</v>
       </c>
-      <c r="I44" s="36" t="s">
+      <c r="I44" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="34">
         <v>3.9766477641778799</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="K44" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="37">
+      <c r="L44" s="36">
         <v>3.8147626110674602</v>
       </c>
-      <c r="M44" s="38">
+      <c r="M44" s="37">
         <v>56</v>
       </c>
-      <c r="N44" s="35">
+      <c r="N44" s="34">
         <v>136</v>
       </c>
-      <c r="O44" s="37">
+      <c r="O44" s="36">
         <v>50.285505297433403</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="41">
         <v>22.5810933471498</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="41">
         <v>17.979599169937401</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="41">
         <v>5.9305230089305399</v>
       </c>
-      <c r="I45" s="55" t="s">
+      <c r="I45" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="56">
+      <c r="J45" s="55">
         <v>3.9457329104263801</v>
       </c>
-      <c r="K45" s="55" t="s">
+      <c r="K45" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="L45" s="57">
+      <c r="L45" s="56">
         <v>3.48608511114436</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="45">
         <v>29</v>
       </c>
-      <c r="N45" s="42">
+      <c r="N45" s="41">
         <v>120</v>
       </c>
-      <c r="O45" s="57">
+      <c r="O45" s="56">
         <v>24.475710364644598</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="48">
         <v>38.7121146546002</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="48">
         <v>25.3873234160992</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="G46" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="49">
+      <c r="H46" s="48">
         <v>8.7816561655225804</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="28">
         <v>5.10430316432294</v>
       </c>
-      <c r="K46" s="30" t="s">
+      <c r="K46" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L46" s="31">
+      <c r="L46" s="30">
         <v>2.8186345242178401</v>
       </c>
-      <c r="M46" s="50">
+      <c r="M46" s="49">
         <v>4</v>
       </c>
-      <c r="N46" s="49">
+      <c r="N46" s="48">
         <v>11</v>
       </c>
-      <c r="O46" s="31">
+      <c r="O46" s="30">
         <v>23.810860690307699</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="28">
         <v>82.025001840348594</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="28">
         <v>6.17686550597793</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="28">
         <v>2.1720608074900598</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="J47" s="29">
+      <c r="J47" s="28">
         <v>2.0268016181953801</v>
       </c>
-      <c r="K47" s="30" t="s">
+      <c r="K47" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="31">
+      <c r="L47" s="30">
         <v>1.9871772087045101</v>
       </c>
-      <c r="M47" s="32">
+      <c r="M47" s="31">
         <v>1</v>
       </c>
-      <c r="N47" s="29">
+      <c r="N47" s="28">
         <v>3</v>
       </c>
-      <c r="O47" s="31">
+      <c r="O47" s="30">
         <v>28.9660109866246</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="17">
         <v>54.486880032571896</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="17">
         <v>6.2902256803804297</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="17">
         <v>4.5719535002477096</v>
       </c>
-      <c r="I48" s="17" t="s">
+      <c r="I48" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="17">
         <v>3.6967141134235599</v>
       </c>
-      <c r="K48" s="17" t="s">
+      <c r="K48" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="18">
         <v>3.19502909848846</v>
       </c>
-      <c r="M48" s="53">
+      <c r="M48" s="52">
         <v>6</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="17">
         <v>15</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O48" s="18">
         <v>35.592160010869698</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="28">
         <v>18.938146856731802</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="28">
         <v>12.016014479896301</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="28">
         <v>12.0067900720154</v>
       </c>
-      <c r="I49" s="30" t="s">
+      <c r="I49" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J49" s="28">
         <v>10.714334413271301</v>
       </c>
-      <c r="K49" s="30" t="s">
+      <c r="K49" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="L49" s="31">
+      <c r="L49" s="30">
         <v>6.1374414540000899</v>
       </c>
-      <c r="M49" s="32">
+      <c r="M49" s="31">
         <v>9</v>
       </c>
-      <c r="N49" s="29">
+      <c r="N49" s="28">
         <v>24</v>
       </c>
-      <c r="O49" s="31">
+      <c r="O49" s="30">
         <v>24.122120703777899</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="28">
         <v>20.7392406188218</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="28">
         <v>10.2808660574266</v>
       </c>
-      <c r="G50" s="30" t="s">
+      <c r="G50" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="28">
         <v>9.0982944191045494</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="28">
         <v>8.8639488004495508</v>
       </c>
-      <c r="K50" s="30" t="s">
+      <c r="K50" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="L50" s="31">
+      <c r="L50" s="30">
         <v>8.5640926387138698</v>
       </c>
-      <c r="M50" s="32">
+      <c r="M50" s="31">
         <v>9</v>
       </c>
-      <c r="N50" s="29">
+      <c r="N50" s="28">
         <v>17</v>
       </c>
-      <c r="O50" s="31">
+      <c r="O50" s="30">
         <v>12.388138016448201</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="22">
         <v>47.673494060752198</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="22">
         <v>26.098027808331398</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <v>5.4352421770088597</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>2.4820576927355802</v>
       </c>
-      <c r="K51" s="24" t="s">
+      <c r="K51" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="L51" s="25">
+      <c r="L51" s="24">
         <v>2.2492127473560801</v>
       </c>
-      <c r="M51" s="26">
+      <c r="M51" s="25">
         <v>3</v>
       </c>
-      <c r="N51" s="23">
+      <c r="N51" s="22">
         <v>11</v>
       </c>
-      <c r="O51" s="25">
+      <c r="O51" s="24">
         <v>35.635431177342703</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="28">
         <v>50.388311507403003</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="28">
         <v>45.064079352395403</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H52" s="28">
         <v>0.95999063051030997</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J52" s="28">
         <v>0.69151293526932001</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K52" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L52" s="31">
+      <c r="L52" s="30">
         <v>0.40808297295027002</v>
       </c>
-      <c r="M52" s="32">
+      <c r="M52" s="31">
         <v>2</v>
       </c>
-      <c r="N52" s="29">
+      <c r="N52" s="28">
         <v>2</v>
       </c>
-      <c r="O52" s="31">
+      <c r="O52" s="30">
         <v>42.310542818440403</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="28">
         <v>93.344160748707395</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="28">
         <v>5.2781132278824803</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="G53" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="28">
         <v>0.27562524437372998</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="J53" s="29">
+      <c r="J53" s="28">
         <v>0.23064756053659</v>
       </c>
-      <c r="K53" s="30" t="s">
+      <c r="K53" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="L53" s="31">
+      <c r="L53" s="30">
         <v>0.16698926529953001</v>
       </c>
-      <c r="M53" s="32">
+      <c r="M53" s="31">
         <v>1</v>
       </c>
-      <c r="N53" s="29">
+      <c r="N53" s="28">
         <v>1</v>
       </c>
-      <c r="O53" s="31">
+      <c r="O53" s="30">
         <v>15.386188515194901</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="28">
         <v>35.627232281676598</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="28">
         <v>17.745962000658999</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="28">
         <v>14.8157303671984</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="J54" s="29">
+      <c r="J54" s="28">
         <v>11.017976396935399</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="31">
+      <c r="L54" s="30">
         <v>5.5333472569567901</v>
       </c>
-      <c r="M54" s="32">
+      <c r="M54" s="31">
         <v>4</v>
       </c>
-      <c r="N54" s="29">
+      <c r="N54" s="28">
         <v>7</v>
       </c>
-      <c r="O54" s="31">
+      <c r="O54" s="30">
         <v>32.045142879483898</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="28">
         <v>95.918452421424902</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="28">
         <v>1.37974793104529</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G55" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="28">
         <v>0.52530142503113997</v>
       </c>
-      <c r="I55" s="30" t="s">
+      <c r="I55" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="J55" s="29">
+      <c r="J55" s="28">
         <v>0.41124598029045001</v>
       </c>
-      <c r="K55" s="30" t="s">
+      <c r="K55" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L55" s="31">
+      <c r="L55" s="30">
         <v>0.16379284226394999</v>
       </c>
-      <c r="M55" s="32">
+      <c r="M55" s="31">
         <v>1</v>
       </c>
-      <c r="N55" s="29">
+      <c r="N55" s="28">
         <v>1</v>
       </c>
-      <c r="O55" s="31">
+      <c r="O55" s="30">
         <v>31.298871043211602</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="28">
         <v>72.406588736687397</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="28">
         <v>9.0873341647059807</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="28">
         <v>4.6640011031004702</v>
       </c>
-      <c r="I56" s="30" t="s">
+      <c r="I56" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="29">
+      <c r="J56" s="28">
         <v>4.3286762142017903</v>
       </c>
-      <c r="K56" s="30" t="s">
+      <c r="K56" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="L56" s="31">
+      <c r="L56" s="30">
         <v>4.2013532644365501</v>
       </c>
-      <c r="M56" s="32">
+      <c r="M56" s="31">
         <v>2</v>
       </c>
-      <c r="N56" s="29">
+      <c r="N56" s="28">
         <v>4</v>
       </c>
-      <c r="O56" s="31">
+      <c r="O56" s="30">
         <v>11.815640404023</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="28">
         <v>73.743794677333995</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="28">
         <v>12.7378704355071</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="28">
         <v>2.8258967791549101</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J57" s="28">
         <v>1.47921748245466</v>
       </c>
-      <c r="K57" s="30" t="s">
+      <c r="K57" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L57" s="31">
+      <c r="L57" s="30">
         <v>1.1252569452274299</v>
       </c>
-      <c r="M57" s="32">
+      <c r="M57" s="31">
         <v>2</v>
       </c>
-      <c r="N57" s="29">
+      <c r="N57" s="28">
         <v>4</v>
       </c>
-      <c r="O57" s="31">
+      <c r="O57" s="30">
         <v>14.473111298437599</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="28">
         <v>15.501663467376501</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="28">
         <v>13.6565286689116</v>
       </c>
-      <c r="G58" s="30" t="s">
+      <c r="G58" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="28">
         <v>13.3084848103237</v>
       </c>
-      <c r="I58" s="30" t="s">
+      <c r="I58" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="J58" s="29">
+      <c r="J58" s="28">
         <v>5.2905327788973997</v>
       </c>
-      <c r="K58" s="30" t="s">
+      <c r="K58" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L58" s="31">
+      <c r="L58" s="30">
         <v>4.4889540907390799</v>
       </c>
-      <c r="M58" s="32">
+      <c r="M58" s="31">
         <v>18</v>
       </c>
-      <c r="N58" s="29">
+      <c r="N58" s="28">
         <v>53</v>
       </c>
-      <c r="O58" s="31">
+      <c r="O58" s="30">
         <v>26.958167664791699</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="28">
         <v>41.714510297857302</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="28">
         <v>19.241134774865301</v>
       </c>
-      <c r="G59" s="30" t="s">
+      <c r="G59" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="28">
         <v>8.7739192771333592</v>
       </c>
-      <c r="I59" s="30" t="s">
+      <c r="I59" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="J59" s="29">
+      <c r="J59" s="28">
         <v>6.6023345120060499</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="K59" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="L59" s="31">
+      <c r="L59" s="30">
         <v>4.4844761576668297</v>
       </c>
-      <c r="M59" s="32">
+      <c r="M59" s="31">
         <v>4</v>
       </c>
-      <c r="N59" s="29">
+      <c r="N59" s="28">
         <v>9</v>
       </c>
-      <c r="O59" s="31">
+      <c r="O59" s="30">
         <v>28.727712760121701</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="60">
+      <c r="D60" s="59">
         <v>25.986044242503802</v>
       </c>
-      <c r="E60" s="61" t="s">
+      <c r="E60" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="60">
+      <c r="F60" s="59">
         <v>24.891237562382901</v>
       </c>
-      <c r="G60" s="61" t="s">
+      <c r="G60" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="H60" s="60">
+      <c r="H60" s="59">
         <v>9.4630616124441609</v>
       </c>
-      <c r="I60" s="61" t="s">
+      <c r="I60" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="J60" s="60">
+      <c r="J60" s="59">
         <v>5.1935160428085503</v>
       </c>
-      <c r="K60" s="61" t="s">
+      <c r="K60" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="L60" s="62">
+      <c r="L60" s="61">
         <v>2.3001679418605598</v>
       </c>
-      <c r="M60" s="63">
+      <c r="M60" s="62">
         <v>9</v>
       </c>
-      <c r="N60" s="60">
+      <c r="N60" s="59">
         <v>22</v>
       </c>
-      <c r="O60" s="62">
+      <c r="O60" s="61">
         <v>30.770450061396701</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="42">
+      <c r="D61" s="41">
         <v>37.998184977827897</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="41">
         <v>24.2199837739545</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="42">
+      <c r="H61" s="41">
         <v>5.9598886828520898</v>
       </c>
-      <c r="I61" s="55" t="s">
+      <c r="I61" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="56">
+      <c r="J61" s="55">
         <v>3.4505715455294999</v>
       </c>
-      <c r="K61" s="55" t="s">
+      <c r="K61" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="L61" s="57">
+      <c r="L61" s="56">
         <v>3.3075027332926799</v>
       </c>
-      <c r="M61" s="46">
+      <c r="M61" s="45">
         <v>6</v>
       </c>
-      <c r="N61" s="42">
+      <c r="N61" s="41">
         <v>22</v>
       </c>
-      <c r="O61" s="57">
+      <c r="O61" s="56">
         <v>20.051232902647701</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="67">
+      <c r="D62" s="66">
         <v>23.1939102994879</v>
       </c>
-      <c r="E62" s="68" t="s">
+      <c r="E62" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="67">
+      <c r="F62" s="66">
         <v>10.9711412078812</v>
       </c>
-      <c r="G62" s="68" t="s">
+      <c r="G62" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="67">
+      <c r="H62" s="66">
         <v>8.1764323186329602</v>
       </c>
-      <c r="I62" s="68" t="s">
+      <c r="I62" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J62" s="67">
+      <c r="J62" s="66">
         <v>3.1502809023381202</v>
       </c>
-      <c r="K62" s="68" t="s">
+      <c r="K62" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="L62" s="69">
+      <c r="L62" s="68">
         <v>3.07011135722178</v>
       </c>
-      <c r="M62" s="70">
+      <c r="M62" s="69">
         <v>36</v>
       </c>
-      <c r="N62" s="67">
+      <c r="N62" s="66">
         <v>154</v>
       </c>
-      <c r="O62" s="69">
+      <c r="O62" s="68">
         <v>24.587225242248401</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="C63" s="72" t="s">
+      <c r="C63" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="73">
+      <c r="D63" s="72">
         <v>5.7403258292912804</v>
       </c>
-      <c r="E63" s="68" t="s">
+      <c r="E63" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="73">
+      <c r="F63" s="72">
         <v>4.6751412914443602</v>
       </c>
-      <c r="G63" s="68" t="s">
+      <c r="G63" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="73">
+      <c r="H63" s="72">
         <v>3.4381972525056801</v>
       </c>
-      <c r="I63" s="68" t="s">
+      <c r="I63" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="67">
+      <c r="J63" s="66">
         <v>3.4308175613902598</v>
       </c>
-      <c r="K63" s="68" t="s">
+      <c r="K63" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="L63" s="69">
+      <c r="L63" s="68">
         <v>3.2415188850353802</v>
       </c>
-      <c r="M63" s="74">
+      <c r="M63" s="73">
         <v>167</v>
       </c>
-      <c r="N63" s="73">
+      <c r="N63" s="72">
         <v>378</v>
       </c>
-      <c r="O63" s="69">
+      <c r="O63" s="68">
         <v>31.631298662627898</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="76" t="s">
+      <c r="B64" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="77" t="s">
+      <c r="C64" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="78">
+      <c r="D64" s="77">
         <v>9.4119992690997698</v>
       </c>
-      <c r="E64" s="79" t="s">
+      <c r="E64" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="78">
+      <c r="F64" s="77">
         <v>4.0288372056716399</v>
       </c>
-      <c r="G64" s="79" t="s">
+      <c r="G64" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="H64" s="78">
+      <c r="H64" s="77">
         <v>3.7974646270958101</v>
       </c>
-      <c r="I64" s="79" t="s">
+      <c r="I64" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="73">
+      <c r="J64" s="72">
         <v>3.3665678895355899</v>
       </c>
-      <c r="K64" s="79" t="s">
+      <c r="K64" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="L64" s="80">
+      <c r="L64" s="79">
         <v>2.9923263741889099</v>
       </c>
-      <c r="M64" s="81">
+      <c r="M64" s="80">
         <v>89</v>
       </c>
-      <c r="N64" s="78">
+      <c r="N64" s="77">
         <v>222</v>
       </c>
-      <c r="O64" s="80">
+      <c r="O64" s="79">
         <v>28.510709152810101</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="82" t="s">
+      <c r="C65" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="D65" s="83">
+      <c r="D65" s="82">
         <v>6.2619359025627297</v>
       </c>
-      <c r="E65" s="84" t="s">
+      <c r="E65" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="83">
+      <c r="F65" s="82">
         <v>5.8054988115953297</v>
       </c>
-      <c r="G65" s="84" t="s">
+      <c r="G65" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="H65" s="83">
+      <c r="H65" s="82">
         <v>4.6530787206675797</v>
       </c>
-      <c r="I65" s="84" t="s">
+      <c r="I65" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="83">
+      <c r="J65" s="82">
         <v>3.28704072721965</v>
       </c>
-      <c r="K65" s="84" t="s">
+      <c r="K65" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="L65" s="85">
+      <c r="L65" s="84">
         <v>2.1244778797869901</v>
       </c>
-      <c r="M65" s="86">
+      <c r="M65" s="85">
         <v>153</v>
       </c>
-      <c r="N65" s="83">
+      <c r="N65" s="82">
         <v>347</v>
       </c>
-      <c r="O65" s="85">
+      <c r="O65" s="84">
         <v>25.907680794959202</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="87" t="s">
+      <c r="B66" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="88" t="s">
+      <c r="C66" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="89">
+      <c r="D66" s="88">
         <v>6.3060215881967698</v>
       </c>
-      <c r="E66" s="90" t="s">
+      <c r="E66" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="89">
+      <c r="F66" s="88">
         <v>4.6231199643492698</v>
       </c>
-      <c r="G66" s="90" t="s">
+      <c r="G66" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="89">
+      <c r="H66" s="88">
         <v>3.5846297565961001</v>
       </c>
-      <c r="I66" s="90" t="s">
+      <c r="I66" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="J66" s="89">
+      <c r="J66" s="88">
         <v>3.3858335257378198</v>
       </c>
-      <c r="K66" s="90" t="s">
+      <c r="K66" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="L66" s="91">
+      <c r="L66" s="90">
         <v>3.1393031145663999</v>
       </c>
-      <c r="M66" s="92">
+      <c r="M66" s="91">
         <v>167</v>
       </c>
-      <c r="N66" s="89">
+      <c r="N66" s="88">
         <v>381</v>
       </c>
-      <c r="O66" s="91">
+      <c r="O66" s="90">
         <v>31.271925074722201</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75" t="s">
+      <c r="A67" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="71" t="s">
+      <c r="B67" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="82" t="s">
+      <c r="C67" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="83">
+      <c r="D67" s="82">
         <v>17.947378568431699</v>
       </c>
-      <c r="E67" s="84" t="s">
+      <c r="E67" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F67" s="83">
+      <c r="F67" s="82">
         <v>9.6032068209534494</v>
       </c>
-      <c r="G67" s="84" t="s">
+      <c r="G67" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="H67" s="83">
+      <c r="H67" s="82">
         <v>7.1568232080624501</v>
       </c>
-      <c r="I67" s="84" t="s">
+      <c r="I67" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="83">
+      <c r="J67" s="82">
         <v>6.3863225150306704</v>
       </c>
-      <c r="K67" s="84" t="s">
+      <c r="K67" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="85">
+      <c r="L67" s="84">
         <v>3.9833189332579</v>
       </c>
-      <c r="M67" s="86">
+      <c r="M67" s="85">
         <v>55</v>
       </c>
-      <c r="N67" s="83">
+      <c r="N67" s="82">
         <v>175</v>
       </c>
-      <c r="O67" s="85">
+      <c r="O67" s="84">
         <v>18.735784196534699</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="83">
+      <c r="D68" s="82">
         <v>29.467268652960499</v>
       </c>
-      <c r="E68" s="84" t="s">
+      <c r="E68" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="83">
+      <c r="F68" s="82">
         <v>13.612693010847099</v>
       </c>
-      <c r="G68" s="84" t="s">
+      <c r="G68" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="83">
+      <c r="H68" s="82">
         <v>6.6587246309740999</v>
       </c>
-      <c r="I68" s="84" t="s">
+      <c r="I68" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="83">
+      <c r="J68" s="82">
         <v>3.0405712517833701</v>
       </c>
-      <c r="K68" s="84" t="s">
+      <c r="K68" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="L68" s="85">
+      <c r="L68" s="84">
         <v>2.7038358662848201</v>
       </c>
-      <c r="M68" s="86">
+      <c r="M68" s="85">
         <v>28</v>
       </c>
-      <c r="N68" s="83">
+      <c r="N68" s="82">
         <v>127</v>
       </c>
-      <c r="O68" s="85">
+      <c r="O68" s="84">
         <v>21.5648415770669</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="75" t="s">
+      <c r="A69" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="82" t="s">
+      <c r="C69" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="83">
+      <c r="D69" s="82">
         <v>31.8128115521063</v>
       </c>
-      <c r="E69" s="84" t="s">
+      <c r="E69" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="83">
+      <c r="F69" s="82">
         <v>11.561821680174599</v>
       </c>
-      <c r="G69" s="84" t="s">
+      <c r="G69" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="H69" s="83">
+      <c r="H69" s="82">
         <v>11.447752450765501</v>
       </c>
-      <c r="I69" s="84" t="s">
+      <c r="I69" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="J69" s="83">
+      <c r="J69" s="82">
         <v>5.0195892444899997</v>
       </c>
-      <c r="K69" s="84" t="s">
+      <c r="K69" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="L69" s="85">
+      <c r="L69" s="84">
         <v>3.3991660627003002</v>
       </c>
-      <c r="M69" s="86">
+      <c r="M69" s="85">
         <v>11</v>
       </c>
-      <c r="N69" s="83">
+      <c r="N69" s="82">
         <v>62</v>
       </c>
-      <c r="O69" s="85">
+      <c r="O69" s="84">
         <v>18.809653949897001</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="83">
+      <c r="D70" s="82">
         <v>50.655976909280398</v>
       </c>
-      <c r="E70" s="84" t="s">
+      <c r="E70" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F70" s="83">
+      <c r="F70" s="82">
         <v>15.6010421128701</v>
       </c>
-      <c r="G70" s="84" t="s">
+      <c r="G70" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="83">
+      <c r="H70" s="82">
         <v>8.7578009936379999</v>
       </c>
-      <c r="I70" s="84" t="s">
+      <c r="I70" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="J70" s="83">
+      <c r="J70" s="82">
         <v>4.78168618391779</v>
       </c>
-      <c r="K70" s="84" t="s">
+      <c r="K70" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="L70" s="85">
+      <c r="L70" s="84">
         <v>4.2343755593175603</v>
       </c>
-      <c r="M70" s="86">
+      <c r="M70" s="85">
         <v>3</v>
       </c>
-      <c r="N70" s="83">
+      <c r="N70" s="82">
         <v>10</v>
       </c>
-      <c r="O70" s="85">
+      <c r="O70" s="84">
         <v>37.809898682305302</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="82" t="s">
+      <c r="C71" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="83">
+      <c r="D71" s="82">
         <v>37.998184977827897</v>
       </c>
-      <c r="E71" s="84" t="s">
+      <c r="E71" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="83">
+      <c r="F71" s="82">
         <v>24.2199837739545</v>
       </c>
-      <c r="G71" s="84" t="s">
+      <c r="G71" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="83">
+      <c r="H71" s="82">
         <v>5.9598886828520996</v>
       </c>
-      <c r="I71" s="84" t="s">
+      <c r="I71" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="83">
+      <c r="J71" s="82">
         <v>3.4505715455294999</v>
       </c>
-      <c r="K71" s="84" t="s">
+      <c r="K71" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="L71" s="85">
+      <c r="L71" s="84">
         <v>3.3075027332926799</v>
       </c>
-      <c r="M71" s="86">
+      <c r="M71" s="85">
         <v>6</v>
       </c>
-      <c r="N71" s="83">
+      <c r="N71" s="82">
         <v>22</v>
       </c>
-      <c r="O71" s="85">
+      <c r="O71" s="84">
         <v>20.051232902647701</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="83">
+      <c r="D72" s="82">
         <v>23.055765715030599</v>
       </c>
-      <c r="E72" s="84" t="s">
+      <c r="E72" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F72" s="83">
+      <c r="F72" s="82">
         <v>11.649424574630901</v>
       </c>
-      <c r="G72" s="84" t="s">
+      <c r="G72" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="83">
+      <c r="H72" s="82">
         <v>6.2777754690765004</v>
       </c>
-      <c r="I72" s="84" t="s">
+      <c r="I72" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J72" s="83">
+      <c r="J72" s="82">
         <v>5.04594464912718</v>
       </c>
-      <c r="K72" s="84" t="s">
+      <c r="K72" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="L72" s="85">
+      <c r="L72" s="84">
         <v>4.1748044779184399</v>
       </c>
-      <c r="M72" s="86">
+      <c r="M72" s="85">
         <v>28</v>
       </c>
-      <c r="N72" s="83">
+      <c r="N72" s="82">
         <v>99</v>
       </c>
-      <c r="O72" s="85">
+      <c r="O72" s="84">
         <v>13.8240850142389</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="71" t="s">
+      <c r="B73" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C73" s="82" t="s">
+      <c r="C73" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="83">
+      <c r="D73" s="82">
         <v>13.3135850922681</v>
       </c>
-      <c r="E73" s="84" t="s">
+      <c r="E73" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="83">
+      <c r="F73" s="82">
         <v>10.834043782657499</v>
       </c>
-      <c r="G73" s="84" t="s">
+      <c r="G73" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="83">
+      <c r="H73" s="82">
         <v>6.8636116500679201</v>
       </c>
-      <c r="I73" s="84" t="s">
+      <c r="I73" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="J73" s="83">
+      <c r="J73" s="82">
         <v>6.5603929904178599</v>
       </c>
-      <c r="K73" s="84" t="s">
+      <c r="K73" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="L73" s="85">
+      <c r="L73" s="84">
         <v>6.2767307118568203</v>
       </c>
-      <c r="M73" s="86">
+      <c r="M73" s="85">
         <v>26</v>
       </c>
-      <c r="N73" s="83">
+      <c r="N73" s="82">
         <v>130</v>
       </c>
-      <c r="O73" s="85">
+      <c r="O73" s="84">
         <v>33.945571531824797</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="82" t="s">
+      <c r="C74" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="83">
+      <c r="D74" s="82">
         <v>28.059937967163599</v>
       </c>
-      <c r="E74" s="84" t="s">
+      <c r="E74" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="83">
+      <c r="F74" s="82">
         <v>18.012135158907999</v>
       </c>
-      <c r="G74" s="84" t="s">
+      <c r="G74" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="83">
+      <c r="H74" s="82">
         <v>6.13253645581299</v>
       </c>
-      <c r="I74" s="84" t="s">
+      <c r="I74" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="J74" s="83">
+      <c r="J74" s="82">
         <v>4.4911781004376099</v>
       </c>
-      <c r="K74" s="84" t="s">
+      <c r="K74" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="L74" s="85">
+      <c r="L74" s="84">
         <v>4.4277403798086103</v>
       </c>
-      <c r="M74" s="86">
+      <c r="M74" s="85">
         <v>15</v>
       </c>
-      <c r="N74" s="83">
+      <c r="N74" s="82">
         <v>63</v>
       </c>
-      <c r="O74" s="85">
+      <c r="O74" s="84">
         <v>37.645671089897299</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="75" t="s">
+      <c r="A75" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="72" t="s">
+      <c r="C75" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="73">
+      <c r="D75" s="72">
         <v>59.767373886822298</v>
       </c>
-      <c r="E75" s="90" t="s">
+      <c r="E75" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="73">
+      <c r="F75" s="72">
         <v>10.9525972928506</v>
       </c>
-      <c r="G75" s="90" t="s">
+      <c r="G75" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="73">
+      <c r="H75" s="72">
         <v>7.5889878217636904</v>
       </c>
-      <c r="I75" s="90" t="s">
+      <c r="I75" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="89">
+      <c r="J75" s="88">
         <v>5.1937868319365998</v>
       </c>
-      <c r="K75" s="90" t="s">
+      <c r="K75" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="L75" s="91">
+      <c r="L75" s="90">
         <v>3.0254571858694299</v>
       </c>
-      <c r="M75" s="74">
+      <c r="M75" s="73">
         <v>3</v>
       </c>
-      <c r="N75" s="73">
+      <c r="N75" s="72">
         <v>8</v>
       </c>
-      <c r="O75" s="91">
+      <c r="O75" s="90">
         <v>41.827749207960302</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="75" t="s">
+      <c r="A76" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="93" t="s">
+      <c r="B76" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="C76" s="94" t="s">
+      <c r="C76" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="95">
+      <c r="D76" s="94">
         <v>11.000908378194801</v>
       </c>
-      <c r="E76" s="84" t="s">
+      <c r="E76" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="95">
+      <c r="F76" s="94">
         <v>6.0678358176608302</v>
       </c>
-      <c r="G76" s="84" t="s">
+      <c r="G76" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="H76" s="95">
+      <c r="H76" s="94">
         <v>4.8013568516055196</v>
       </c>
-      <c r="I76" s="84" t="s">
+      <c r="I76" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="J76" s="83">
+      <c r="J76" s="82">
         <v>2.8721563381084798</v>
       </c>
-      <c r="K76" s="84" t="s">
+      <c r="K76" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="L76" s="85">
+      <c r="L76" s="84">
         <v>2.7944349671319499</v>
       </c>
-      <c r="M76" s="96">
+      <c r="M76" s="95">
         <v>103</v>
       </c>
-      <c r="N76" s="95">
+      <c r="N76" s="94">
         <v>242</v>
       </c>
-      <c r="O76" s="85">
+      <c r="O76" s="84">
         <v>56.879701027167002</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="75" t="s">
+      <c r="A77" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="82" t="s">
+      <c r="C77" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="83">
+      <c r="D77" s="82">
         <v>12.136957589836999</v>
       </c>
-      <c r="E77" s="84" t="s">
+      <c r="E77" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F77" s="83">
+      <c r="F77" s="82">
         <v>7.0978194312692002</v>
       </c>
-      <c r="G77" s="84" t="s">
+      <c r="G77" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="H77" s="83">
+      <c r="H77" s="82">
         <v>5.4331839248409199</v>
       </c>
-      <c r="I77" s="84" t="s">
+      <c r="I77" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="J77" s="83">
+      <c r="J77" s="82">
         <v>4.5022137279937597</v>
       </c>
-      <c r="K77" s="84" t="s">
+      <c r="K77" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="L77" s="85">
+      <c r="L77" s="84">
         <v>3.48066952154876</v>
       </c>
-      <c r="M77" s="86">
+      <c r="M77" s="85">
         <v>49</v>
       </c>
-      <c r="N77" s="83">
+      <c r="N77" s="82">
         <v>156</v>
       </c>
-      <c r="O77" s="85">
+      <c r="O77" s="84">
         <v>22.237804669913</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="75" t="s">
+      <c r="A78" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="82" t="s">
+      <c r="C78" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="83">
+      <c r="D78" s="82">
         <v>5.4797208965547402</v>
       </c>
-      <c r="E78" s="84" t="s">
+      <c r="E78" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="83">
+      <c r="F78" s="82">
         <v>4.3624103618761403</v>
       </c>
-      <c r="G78" s="84" t="s">
+      <c r="G78" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="83">
+      <c r="H78" s="82">
         <v>3.8140410332385901</v>
       </c>
-      <c r="I78" s="84" t="s">
+      <c r="I78" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="J78" s="83">
+      <c r="J78" s="82">
         <v>3.0827102503486299</v>
       </c>
-      <c r="K78" s="84" t="s">
+      <c r="K78" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="L78" s="85">
+      <c r="L78" s="84">
         <v>2.7086272641795999</v>
       </c>
-      <c r="M78" s="86">
+      <c r="M78" s="85">
         <v>182</v>
       </c>
-      <c r="N78" s="83">
+      <c r="N78" s="82">
         <v>387</v>
       </c>
-      <c r="O78" s="85">
+      <c r="O78" s="84">
         <v>55.949318143443101</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="75" t="s">
+      <c r="A79" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="89">
+      <c r="D79" s="88">
         <v>5.1266497024134798</v>
       </c>
-      <c r="E79" s="90" t="s">
+      <c r="E79" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="89">
+      <c r="F79" s="88">
         <v>4.0292780150692504</v>
       </c>
-      <c r="G79" s="90" t="s">
+      <c r="G79" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="89">
+      <c r="H79" s="88">
         <v>3.7461207684839599</v>
       </c>
-      <c r="I79" s="90" t="s">
+      <c r="I79" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="J79" s="89">
+      <c r="J79" s="88">
         <v>3.1423400812779501</v>
       </c>
-      <c r="K79" s="90" t="s">
+      <c r="K79" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="L79" s="91">
+      <c r="L79" s="90">
         <v>3.1406532111062799</v>
       </c>
-      <c r="M79" s="92">
+      <c r="M79" s="91">
         <v>161</v>
       </c>
-      <c r="N79" s="89">
+      <c r="N79" s="88">
         <v>360</v>
       </c>
-      <c r="O79" s="91">
+      <c r="O79" s="90">
         <v>33.411882715124399</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="71" t="s">
+      <c r="B80" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="82" t="s">
+      <c r="C80" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="83">
+      <c r="D80" s="82">
         <v>56.863942127365597</v>
       </c>
-      <c r="E80" s="84" t="s">
+      <c r="E80" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="83">
+      <c r="F80" s="82">
         <v>21.113820161023298</v>
       </c>
-      <c r="G80" s="84" t="s">
+      <c r="G80" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="83">
+      <c r="H80" s="82">
         <v>5.5656145285118299</v>
       </c>
-      <c r="I80" s="84" t="s">
+      <c r="I80" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J80" s="83">
+      <c r="J80" s="82">
         <v>2.6789995908597999</v>
       </c>
-      <c r="K80" s="84" t="s">
+      <c r="K80" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="L80" s="85">
+      <c r="L80" s="84">
         <v>1.8816530870984101</v>
       </c>
-      <c r="M80" s="86">
+      <c r="M80" s="85">
         <v>2</v>
       </c>
-      <c r="N80" s="83">
+      <c r="N80" s="82">
         <v>7</v>
       </c>
-      <c r="O80" s="85">
+      <c r="O80" s="84">
         <v>36.150171598979902</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="75" t="s">
+      <c r="A81" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="71" t="s">
+      <c r="B81" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="82" t="s">
+      <c r="C81" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="83">
+      <c r="D81" s="82">
         <v>39.8436644308103</v>
       </c>
-      <c r="E81" s="84" t="s">
+      <c r="E81" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="83">
+      <c r="F81" s="82">
         <v>11.705929555329901</v>
       </c>
-      <c r="G81" s="84" t="s">
+      <c r="G81" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="83">
+      <c r="H81" s="82">
         <v>11.135214843721</v>
       </c>
-      <c r="I81" s="84" t="s">
+      <c r="I81" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="J81" s="83">
+      <c r="J81" s="82">
         <v>3.6732755793237901</v>
       </c>
-      <c r="K81" s="84" t="s">
+      <c r="K81" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="85">
+      <c r="L81" s="84">
         <v>2.3027366414860801</v>
       </c>
-      <c r="M81" s="86">
+      <c r="M81" s="85">
         <v>11</v>
       </c>
-      <c r="N81" s="83">
+      <c r="N81" s="82">
         <v>79</v>
       </c>
-      <c r="O81" s="85">
+      <c r="O81" s="84">
         <v>40.335633648728397</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="75" t="s">
+      <c r="A82" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="71" t="s">
+      <c r="B82" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="82" t="s">
+      <c r="C82" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="83">
+      <c r="D82" s="82">
         <v>14.022922618428099</v>
       </c>
-      <c r="E82" s="84" t="s">
+      <c r="E82" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="83">
+      <c r="F82" s="82">
         <v>11.8892498104229</v>
       </c>
-      <c r="G82" s="84" t="s">
+      <c r="G82" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="83">
+      <c r="H82" s="82">
         <v>3.83272459892456</v>
       </c>
-      <c r="I82" s="84" t="s">
+      <c r="I82" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="J82" s="83">
+      <c r="J82" s="82">
         <v>3.61553337560958</v>
       </c>
-      <c r="K82" s="84" t="s">
+      <c r="K82" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="L82" s="85">
+      <c r="L82" s="84">
         <v>3.4247351040814502</v>
       </c>
-      <c r="M82" s="86">
+      <c r="M82" s="85">
         <v>57</v>
       </c>
-      <c r="N82" s="83">
+      <c r="N82" s="82">
         <v>191</v>
       </c>
-      <c r="O82" s="85">
+      <c r="O82" s="84">
         <v>22.8214907392925</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="75" t="s">
+      <c r="A83" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="73">
+      <c r="D83" s="72">
         <v>3.99061534998732</v>
       </c>
-      <c r="E83" s="90" t="s">
+      <c r="E83" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="F83" s="73">
+      <c r="F83" s="72">
         <v>3.7248595814996199</v>
       </c>
-      <c r="G83" s="90" t="s">
+      <c r="G83" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="73">
+      <c r="H83" s="72">
         <v>3.5538304818939199</v>
       </c>
-      <c r="I83" s="90" t="s">
+      <c r="I83" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="J83" s="89">
+      <c r="J83" s="88">
         <v>2.8076452894141202</v>
       </c>
-      <c r="K83" s="90" t="s">
+      <c r="K83" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="91">
+      <c r="L83" s="90">
         <v>2.6807082414813799</v>
       </c>
-      <c r="M83" s="74">
+      <c r="M83" s="73">
         <v>178</v>
       </c>
-      <c r="N83" s="73">
+      <c r="N83" s="72">
         <v>392</v>
       </c>
-      <c r="O83" s="91">
+      <c r="O83" s="90">
         <v>30.845300600351699</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="93" t="s">
+      <c r="B84" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="C84" s="94" t="s">
+      <c r="C84" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="95">
+      <c r="D84" s="94">
         <v>27.142737767536602</v>
       </c>
-      <c r="E84" s="84" t="s">
+      <c r="E84" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="95">
+      <c r="F84" s="94">
         <v>17.1607397556926</v>
       </c>
-      <c r="G84" s="84" t="s">
+      <c r="G84" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="H84" s="95">
+      <c r="H84" s="94">
         <v>6.5744843529113899</v>
       </c>
-      <c r="I84" s="84" t="s">
+      <c r="I84" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J84" s="83">
+      <c r="J84" s="82">
         <v>5.7413078834649101</v>
       </c>
-      <c r="K84" s="84" t="s">
+      <c r="K84" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="85">
+      <c r="L84" s="84">
         <v>3.6286058085521402</v>
       </c>
-      <c r="M84" s="96">
+      <c r="M84" s="95">
         <v>14</v>
       </c>
-      <c r="N84" s="95">
+      <c r="N84" s="94">
         <v>47</v>
       </c>
-      <c r="O84" s="85">
+      <c r="O84" s="84">
         <v>21.302383715196601</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="75" t="s">
+      <c r="A85" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B85" s="97" t="s">
+      <c r="B85" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="82" t="s">
+      <c r="C85" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="83">
+      <c r="D85" s="82">
         <v>23.442673505836801</v>
       </c>
-      <c r="E85" s="84" t="s">
+      <c r="E85" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F85" s="83">
+      <c r="F85" s="82">
         <v>7.9500566437305498</v>
       </c>
-      <c r="G85" s="84" t="s">
+      <c r="G85" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="H85" s="83">
+      <c r="H85" s="82">
         <v>5.3450139430594401</v>
       </c>
-      <c r="I85" s="84" t="s">
+      <c r="I85" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="J85" s="83">
+      <c r="J85" s="82">
         <v>3.7026559808615298</v>
       </c>
-      <c r="K85" s="84" t="s">
+      <c r="K85" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="L85" s="85">
+      <c r="L85" s="84">
         <v>3.7025185801678799</v>
       </c>
-      <c r="M85" s="86">
+      <c r="M85" s="85">
         <v>24</v>
       </c>
-      <c r="N85" s="83">
+      <c r="N85" s="82">
         <v>65</v>
       </c>
-      <c r="O85" s="85">
+      <c r="O85" s="84">
         <v>11.8942385036412</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="82" t="s">
+      <c r="C86" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="83">
+      <c r="D86" s="82">
         <v>29.850331765439901</v>
       </c>
-      <c r="E86" s="84" t="s">
+      <c r="E86" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="83">
+      <c r="F86" s="82">
         <v>12.626832758353499</v>
       </c>
-      <c r="G86" s="84" t="s">
+      <c r="G86" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="H86" s="83">
+      <c r="H86" s="82">
         <v>7.3875688713372103</v>
       </c>
-      <c r="I86" s="84" t="s">
+      <c r="I86" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="83">
+      <c r="J86" s="82">
         <v>4.0597147753983798</v>
       </c>
-      <c r="K86" s="84" t="s">
+      <c r="K86" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="85">
+      <c r="L86" s="84">
         <v>2.0750013952853901</v>
       </c>
-      <c r="M86" s="86">
+      <c r="M86" s="85">
         <v>27</v>
       </c>
-      <c r="N86" s="83">
+      <c r="N86" s="82">
         <v>126</v>
       </c>
-      <c r="O86" s="85">
+      <c r="O86" s="84">
         <v>23.1849552058789</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="75" t="s">
+      <c r="A87" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="71" t="s">
+      <c r="B87" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="82" t="s">
+      <c r="C87" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="83">
+      <c r="D87" s="82">
         <v>6.9774939482500198</v>
       </c>
-      <c r="E87" s="84" t="s">
+      <c r="E87" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="F87" s="83">
+      <c r="F87" s="82">
         <v>5.62897965265745</v>
       </c>
-      <c r="G87" s="84" t="s">
+      <c r="G87" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="83">
+      <c r="H87" s="82">
         <v>3.66643153650771</v>
       </c>
-      <c r="I87" s="84" t="s">
+      <c r="I87" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="83">
+      <c r="J87" s="82">
         <v>2.0320590875350399</v>
       </c>
-      <c r="K87" s="84" t="s">
+      <c r="K87" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="L87" s="85">
+      <c r="L87" s="84">
         <v>1.99240446200542</v>
       </c>
-      <c r="M87" s="86">
+      <c r="M87" s="85">
         <v>131</v>
       </c>
-      <c r="N87" s="83">
+      <c r="N87" s="82">
         <v>298</v>
       </c>
-      <c r="O87" s="85">
+      <c r="O87" s="84">
         <v>27.7955928547224</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="75" t="s">
+      <c r="A88" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="C88" s="82" t="s">
+      <c r="C88" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="83">
+      <c r="D88" s="82">
         <v>17.770165830887201</v>
       </c>
-      <c r="E88" s="84" t="s">
+      <c r="E88" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F88" s="83">
+      <c r="F88" s="82">
         <v>11.0578043848848</v>
       </c>
-      <c r="G88" s="84" t="s">
+      <c r="G88" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="H88" s="83">
+      <c r="H88" s="82">
         <v>8.6583725841710297</v>
       </c>
-      <c r="I88" s="84" t="s">
+      <c r="I88" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J88" s="83">
+      <c r="J88" s="82">
         <v>6.7241544886278302</v>
       </c>
-      <c r="K88" s="84" t="s">
+      <c r="K88" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="L88" s="85">
+      <c r="L88" s="84">
         <v>5.8288960347381202</v>
       </c>
-      <c r="M88" s="86">
+      <c r="M88" s="85">
         <v>24</v>
       </c>
-      <c r="N88" s="83">
+      <c r="N88" s="82">
         <v>126</v>
       </c>
-      <c r="O88" s="85">
+      <c r="O88" s="84">
         <v>35.323441874854602</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75" t="s">
+      <c r="A89" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="71" t="s">
+      <c r="B89" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="82" t="s">
+      <c r="C89" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="83">
+      <c r="D89" s="82">
         <v>6.2056465400203802</v>
       </c>
-      <c r="E89" s="84" t="s">
+      <c r="E89" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="F89" s="83">
+      <c r="F89" s="82">
         <v>4.5335121001710998</v>
       </c>
-      <c r="G89" s="84" t="s">
+      <c r="G89" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="H89" s="83">
+      <c r="H89" s="82">
         <v>4.3940667628183299</v>
       </c>
-      <c r="I89" s="84" t="s">
+      <c r="I89" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="J89" s="83">
+      <c r="J89" s="82">
         <v>4.3047762779679903</v>
       </c>
-      <c r="K89" s="84" t="s">
+      <c r="K89" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="L89" s="85">
+      <c r="L89" s="84">
         <v>3.1626342619872099</v>
       </c>
-      <c r="M89" s="86">
+      <c r="M89" s="85">
         <v>157</v>
       </c>
-      <c r="N89" s="83">
+      <c r="N89" s="82">
         <v>355</v>
       </c>
-      <c r="O89" s="85">
+      <c r="O89" s="84">
         <v>27.3682020488605</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="75" t="s">
+      <c r="A90" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="87" t="s">
+      <c r="B90" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="C90" s="88" t="s">
+      <c r="C90" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="89">
+      <c r="D90" s="88">
         <v>6.0144914898905899</v>
       </c>
-      <c r="E90" s="90" t="s">
+      <c r="E90" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="89">
+      <c r="F90" s="88">
         <v>5.2300207993869297</v>
       </c>
-      <c r="G90" s="90" t="s">
+      <c r="G90" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="H90" s="89">
+      <c r="H90" s="88">
         <v>4.5376087077460303</v>
       </c>
-      <c r="I90" s="90" t="s">
+      <c r="I90" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="J90" s="89">
+      <c r="J90" s="88">
         <v>4.3691672952191203</v>
       </c>
-      <c r="K90" s="90" t="s">
+      <c r="K90" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="L90" s="91">
+      <c r="L90" s="90">
         <v>3.03417221951677</v>
       </c>
-      <c r="M90" s="92">
+      <c r="M90" s="91">
         <v>148</v>
       </c>
-      <c r="N90" s="89">
+      <c r="N90" s="88">
         <v>344</v>
       </c>
-      <c r="O90" s="91">
+      <c r="O90" s="90">
         <v>36.147244697029798</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="75" t="s">
+      <c r="A91" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="C91" s="82" t="s">
+      <c r="C91" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="83">
+      <c r="D91" s="82">
         <v>22.696234451781802</v>
       </c>
-      <c r="E91" s="84" t="s">
+      <c r="E91" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="83">
+      <c r="F91" s="82">
         <v>19.309472283256301</v>
       </c>
-      <c r="G91" s="84" t="s">
+      <c r="G91" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="H91" s="83">
+      <c r="H91" s="82">
         <v>9.8021544699304108</v>
       </c>
-      <c r="I91" s="84" t="s">
+      <c r="I91" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="J91" s="83">
+      <c r="J91" s="82">
         <v>4.7473979201696803</v>
       </c>
-      <c r="K91" s="84" t="s">
+      <c r="K91" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="L91" s="85">
+      <c r="L91" s="84">
         <v>3.75570031784512</v>
       </c>
-      <c r="M91" s="86">
+      <c r="M91" s="85">
         <v>12</v>
       </c>
-      <c r="N91" s="83">
+      <c r="N91" s="82">
         <v>51</v>
       </c>
-      <c r="O91" s="85">
+      <c r="O91" s="84">
         <v>25.428252989779399</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="C92" s="82" t="s">
+      <c r="C92" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="D92" s="83">
+      <c r="D92" s="82">
         <v>8.49263952402314</v>
       </c>
-      <c r="E92" s="84" t="s">
+      <c r="E92" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="83">
+      <c r="F92" s="82">
         <v>7.6634391674015196</v>
       </c>
-      <c r="G92" s="84" t="s">
+      <c r="G92" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="H92" s="83">
+      <c r="H92" s="82">
         <v>7.4894385567475696</v>
       </c>
-      <c r="I92" s="84" t="s">
+      <c r="I92" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="J92" s="83">
+      <c r="J92" s="82">
         <v>6.6421423368127996</v>
       </c>
-      <c r="K92" s="84" t="s">
+      <c r="K92" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="L92" s="85">
+      <c r="L92" s="84">
         <v>4.8804119936860202</v>
       </c>
-      <c r="M92" s="86">
+      <c r="M92" s="85">
         <v>33</v>
       </c>
-      <c r="N92" s="83">
+      <c r="N92" s="82">
         <v>83</v>
       </c>
-      <c r="O92" s="85">
+      <c r="O92" s="84">
         <v>17.543359946331499</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="D93" s="83">
+      <c r="D93" s="82">
         <v>15.0063813207815</v>
       </c>
-      <c r="E93" s="84" t="s">
+      <c r="E93" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="F93" s="83">
+      <c r="F93" s="82">
         <v>10.5597532496321</v>
       </c>
-      <c r="G93" s="84" t="s">
+      <c r="G93" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="H93" s="83">
+      <c r="H93" s="82">
         <v>5.6012734257415797</v>
       </c>
-      <c r="I93" s="84" t="s">
+      <c r="I93" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="J93" s="83">
+      <c r="J93" s="82">
         <v>5.4858684890034803</v>
       </c>
-      <c r="K93" s="84" t="s">
+      <c r="K93" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="L93" s="85">
+      <c r="L93" s="84">
         <v>3.2887477492050299</v>
       </c>
-      <c r="M93" s="86">
+      <c r="M93" s="85">
         <v>39</v>
       </c>
-      <c r="N93" s="83">
+      <c r="N93" s="82">
         <v>105</v>
       </c>
-      <c r="O93" s="85">
+      <c r="O93" s="84">
         <v>39.127634027974203</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="C94" s="82" t="s">
+      <c r="C94" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="83">
+      <c r="D94" s="82">
         <v>16.7276741347338</v>
       </c>
-      <c r="E94" s="84" t="s">
+      <c r="E94" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="83">
+      <c r="F94" s="82">
         <v>14.675240868183</v>
       </c>
-      <c r="G94" s="84" t="s">
+      <c r="G94" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="H94" s="83">
+      <c r="H94" s="82">
         <v>4.5984068192416698</v>
       </c>
-      <c r="I94" s="84" t="s">
+      <c r="I94" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J94" s="83">
+      <c r="J94" s="82">
         <v>4.3161531310527801</v>
       </c>
-      <c r="K94" s="84" t="s">
+      <c r="K94" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="L94" s="85">
+      <c r="L94" s="84">
         <v>3.4036031142400098</v>
       </c>
-      <c r="M94" s="86">
+      <c r="M94" s="85">
         <v>41</v>
       </c>
-      <c r="N94" s="83">
+      <c r="N94" s="82">
         <v>131</v>
       </c>
-      <c r="O94" s="85">
+      <c r="O94" s="84">
         <v>121.917568259872</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="75" t="s">
+      <c r="A95" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B95" s="71" t="s">
+      <c r="B95" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="82" t="s">
+      <c r="C95" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="83">
+      <c r="D95" s="82">
         <v>36.8552204733408</v>
       </c>
-      <c r="E95" s="84" t="s">
+      <c r="E95" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="83">
+      <c r="F95" s="82">
         <v>11.6194102116796</v>
       </c>
-      <c r="G95" s="84" t="s">
+      <c r="G95" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="83">
+      <c r="H95" s="82">
         <v>9.3533782856046095</v>
       </c>
-      <c r="I95" s="84" t="s">
+      <c r="I95" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="J95" s="83">
+      <c r="J95" s="82">
         <v>5.3951201466763701</v>
       </c>
-      <c r="K95" s="84" t="s">
+      <c r="K95" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="L95" s="85">
+      <c r="L95" s="84">
         <v>3.9646336418515</v>
       </c>
-      <c r="M95" s="86">
+      <c r="M95" s="85">
         <v>9</v>
       </c>
-      <c r="N95" s="83">
+      <c r="N95" s="82">
         <v>52</v>
       </c>
-      <c r="O95" s="85">
+      <c r="O95" s="84">
         <v>19.976207554401402</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="75" t="s">
+      <c r="A96" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="72" t="s">
+      <c r="C96" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="73">
+      <c r="D96" s="72">
         <v>28.000867516177301</v>
       </c>
-      <c r="E96" s="90" t="s">
+      <c r="E96" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="73">
+      <c r="F96" s="72">
         <v>12.7667199407685</v>
       </c>
-      <c r="G96" s="90" t="s">
+      <c r="G96" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="H96" s="73">
+      <c r="H96" s="72">
         <v>9.2364857829113305</v>
       </c>
-      <c r="I96" s="90" t="s">
+      <c r="I96" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="J96" s="89">
+      <c r="J96" s="88">
         <v>3.6339160870036999</v>
       </c>
-      <c r="K96" s="90" t="s">
+      <c r="K96" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L96" s="91">
+      <c r="L96" s="90">
         <v>2.6902011503740302</v>
       </c>
-      <c r="M96" s="74">
+      <c r="M96" s="73">
         <v>23</v>
       </c>
-      <c r="N96" s="73">
+      <c r="N96" s="72">
         <v>105</v>
       </c>
-      <c r="O96" s="91">
+      <c r="O96" s="90">
         <v>36.277438415885797</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="75" t="s">
+      <c r="A97" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B97" s="93" t="s">
+      <c r="B97" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="C97" s="94" t="s">
+      <c r="C97" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="95">
+      <c r="D97" s="94">
         <v>39.8059673030453</v>
       </c>
-      <c r="E97" s="84" t="s">
+      <c r="E97" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="95">
+      <c r="F97" s="94">
         <v>12.589110938591601</v>
       </c>
-      <c r="G97" s="84" t="s">
+      <c r="G97" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="95">
+      <c r="H97" s="94">
         <v>6.6563889540471299</v>
       </c>
-      <c r="I97" s="84" t="s">
+      <c r="I97" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="J97" s="83">
+      <c r="J97" s="82">
         <v>6.36762326148766</v>
       </c>
-      <c r="K97" s="84" t="s">
+      <c r="K97" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="L97" s="85">
+      <c r="L97" s="84">
         <v>2.6372423841970898</v>
       </c>
-      <c r="M97" s="96">
+      <c r="M97" s="95">
         <v>10</v>
       </c>
-      <c r="N97" s="95">
+      <c r="N97" s="94">
         <v>45</v>
       </c>
-      <c r="O97" s="85">
+      <c r="O97" s="84">
         <v>19.7151044275437</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="87" t="s">
+      <c r="B98" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="C98" s="88" t="s">
+      <c r="C98" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="89">
+      <c r="D98" s="88">
         <v>29.4035834847421</v>
       </c>
-      <c r="E98" s="90" t="s">
+      <c r="E98" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="89">
+      <c r="F98" s="88">
         <v>5.5484892160299202</v>
       </c>
-      <c r="G98" s="90" t="s">
+      <c r="G98" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="H98" s="89">
+      <c r="H98" s="88">
         <v>4.2328057393688896</v>
       </c>
-      <c r="I98" s="90" t="s">
+      <c r="I98" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="J98" s="89">
+      <c r="J98" s="88">
         <v>3.9162203176372499</v>
       </c>
-      <c r="K98" s="90" t="s">
+      <c r="K98" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="L98" s="91">
+      <c r="L98" s="90">
         <v>3.48618478190863</v>
       </c>
-      <c r="M98" s="92">
+      <c r="M98" s="91">
         <v>36</v>
       </c>
-      <c r="N98" s="89">
+      <c r="N98" s="88">
         <v>112</v>
       </c>
-      <c r="O98" s="91">
+      <c r="O98" s="90">
         <v>20.911787888602799</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="98"/>
-      <c r="B99" s="99"/>
-      <c r="C99" s="100"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="100"/>
-      <c r="G99" s="101"/>
-      <c r="H99" s="100"/>
-      <c r="I99" s="101"/>
-      <c r="J99" s="100"/>
-      <c r="K99" s="101"/>
-      <c r="L99" s="102"/>
-      <c r="M99" s="103"/>
-      <c r="N99" s="103"/>
-      <c r="O99" s="102"/>
+      <c r="A99" s="97"/>
+      <c r="B99" s="98"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="100"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="100"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="100"/>
+      <c r="J99" s="99"/>
+      <c r="K99" s="100"/>
+      <c r="L99" s="101"/>
+      <c r="M99" s="102"/>
+      <c r="N99" s="102"/>
+      <c r="O99" s="101"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -6516,12 +6513,12 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="108" t="s">
+      <c r="B107" s="107" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="108"/>
+      <c r="B108" s="107"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
@@ -6534,12 +6531,12 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="110" t="s">
+      <c r="B111" s="108" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="108" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6555,12 +6552,12 @@
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7B176208-F4CF-45BE-BFF4-1B68A9554DDB}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{19169C0B-969D-49CD-92ED-2B1F5CF11665}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6F614F52-4F8F-41EB-B7B6-4289A46FEFE4}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{F00F757A-406E-40D2-8324-B11F91E51380}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{09F06B97-3DD7-49EA-AA07-5592012F907A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3412EAC6-9401-4701-8C47-0EC7A8D36214}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F5CD5DAB-F709-4892-A7A4-F5AF17EF8D36}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2588BE28-8886-4670-B23E-21CCBEB5A444}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B1A9B87A-FC65-4ADC-8453-2EC413C7D190}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{B3351D70-B94E-4537-82A0-E39916FB9073}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{3CF77A71-5C31-47B6-A978-D12A061BE198}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{D13C4F71-2AE4-4D28-B470-F5504EB819B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab18.xlsx
+++ b/AfDD_2024_Annex_Table_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E97456-9DDB-4035-8ED6-254E90145D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F87D02E9-69D7-4F3B-AB8A-58C66584DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{3CF77763-E6AD-4770-AAAD-B8CFD890C585}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{D40436C5-E0B7-47A8-988F-15E31C53B76B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1870,7 +1870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE57F33D-4F5B-4B20-B1B0-E77B8B695C57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A4715-C7BE-49A8-B60D-33DF654A7598}">
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6552,12 +6552,12 @@
   </sheetData>
   <autoFilter ref="A2:O98" xr:uid="{00000000-0001-0000-1400-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F5CD5DAB-F709-4892-A7A4-F5AF17EF8D36}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2588BE28-8886-4670-B23E-21CCBEB5A444}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B1A9B87A-FC65-4ADC-8453-2EC413C7D190}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{B3351D70-B94E-4537-82A0-E39916FB9073}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{3CF77A71-5C31-47B6-A978-D12A061BE198}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{D13C4F71-2AE4-4D28-B470-F5504EB819B9}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6BE4C0E7-54DE-4203-B2CC-84619130AC6B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4B28EF02-D695-444A-8C5F-E8FB4E0FCC09}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C824FE81-E6F8-41F4-BCE5-4FE2B5B2B833}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{583F539E-8E67-477C-92A1-5B3482321BEC}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9CA461FF-2E3F-4DDC-B55A-839FF3085309}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{2CF53A90-FF04-4148-B5EF-FDFF257BD333}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
